--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="982">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4057,6 +4057,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4100,6 +4101,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4153,6 +4155,43 @@
   </si>
   <si>
     <t>2月15号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_045_xxlbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_045_XXLBDManger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_universal_dh</t>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_UNIVERSAL_DHManager</t>
+  </si>
+  <si>
+    <t>act_ty_universal_dh_style/act_001_universal</t>
+  </si>
+  <si>
+    <t>万能字资源皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4355,7 +4394,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4505,6 +4544,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4783,13 +4828,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ320"/>
+  <dimension ref="A1:AJ323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13110,6 +13155,85 @@
         <v>957</v>
       </c>
     </row>
+    <row r="321" spans="1:9" ht="16.5">
+      <c r="A321" s="16">
+        <v>320</v>
+      </c>
+      <c r="B321" s="50" t="s">
+        <v>972</v>
+      </c>
+      <c r="C321" s="51" t="s">
+        <v>973</v>
+      </c>
+      <c r="D321" s="50" t="s">
+        <v>974</v>
+      </c>
+      <c r="E321" s="2">
+        <v>1</v>
+      </c>
+      <c r="F321" s="2">
+        <v>1</v>
+      </c>
+      <c r="G321" s="2">
+        <v>1</v>
+      </c>
+      <c r="H321" s="2"/>
+      <c r="I321" s="51" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="16.5">
+      <c r="A322" s="16">
+        <v>321</v>
+      </c>
+      <c r="B322" s="50" t="s">
+        <v>976</v>
+      </c>
+      <c r="C322" s="51" t="s">
+        <v>977</v>
+      </c>
+      <c r="D322" s="50" t="s">
+        <v>978</v>
+      </c>
+      <c r="E322" s="2">
+        <v>1</v>
+      </c>
+      <c r="F322" s="2">
+        <v>1</v>
+      </c>
+      <c r="G322" s="2">
+        <v>1</v>
+      </c>
+      <c r="H322" s="2"/>
+      <c r="I322" s="51" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="16.5">
+      <c r="A323" s="16">
+        <v>322</v>
+      </c>
+      <c r="B323" s="50" t="s">
+        <v>979</v>
+      </c>
+      <c r="C323" s="51" t="s">
+        <v>980</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" s="2">
+        <v>1</v>
+      </c>
+      <c r="F323" s="2">
+        <v>1</v>
+      </c>
+      <c r="G323" s="2">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2"/>
+      <c r="I323" s="51" t="s">
+        <v>981</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="984">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4192,6 +4192,14 @@
   </si>
   <si>
     <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4394,7 +4402,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4549,6 +4557,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4828,13 +4839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ323"/>
+  <dimension ref="A1:AJ324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C332" sqref="C332"/>
+      <selection pane="bottomRight" activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13234,6 +13245,29 @@
         <v>981</v>
       </c>
     </row>
+    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A324" s="16">
+        <v>323</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2">
+        <v>1</v>
+      </c>
+      <c r="F324" s="2">
+        <v>1</v>
+      </c>
+      <c r="G324" s="2">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2"/>
+      <c r="I324" s="52" t="s">
+        <v>983</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -3444,10 +3444,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐敲金蛋</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4201,6 +4197,23 @@
   </si>
   <si>
     <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9号关闭</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4843,10 +4856,10 @@
   <dimension ref="A1:AJ324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C316" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B329" sqref="B329"/>
+      <selection pane="bottomRight" activeCell="I273" sqref="I273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6836,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -10671,7 +10684,7 @@
         <v>630</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>631</v>
@@ -11251,13 +11264,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>737</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E253" s="25">
         <v>0</v>
@@ -11333,7 +11346,7 @@
         <v>748</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>749</v>
@@ -11349,7 +11362,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11782,16 +11795,16 @@
         <v>809</v>
       </c>
       <c r="E273" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F273" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="17">
-        <v>1</v>
-      </c>
-      <c r="I273" s="19" t="s">
-        <v>813</v>
+        <v>0</v>
+      </c>
+      <c r="I273" s="15" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11799,7 +11812,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C274" s="15" t="s">
         <v>811</v>
@@ -11817,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="I274" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11825,25 +11838,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="D275" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="C275" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="D275" s="18" t="s">
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>1</v>
+      </c>
+      <c r="G275" s="17">
+        <v>1</v>
+      </c>
+      <c r="I275" s="19" t="s">
         <v>817</v>
-      </c>
-      <c r="E275" s="17">
-        <v>0</v>
-      </c>
-      <c r="F275" s="17">
-        <v>1</v>
-      </c>
-      <c r="G275" s="17">
-        <v>1</v>
-      </c>
-      <c r="I275" s="19" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11851,22 +11864,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="C276" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="C276" s="15" t="s">
+      <c r="E276" s="17">
+        <v>0</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>820</v>
-      </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11874,25 +11887,25 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="D277" s="18" t="s">
         <v>822</v>
       </c>
-      <c r="C277" s="15" t="s">
-        <v>891</v>
-      </c>
-      <c r="D277" s="18" t="s">
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>0</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>823</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>0</v>
-      </c>
-      <c r="G277" s="17">
-        <v>0</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -11900,13 +11913,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -11918,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11926,22 +11939,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>826</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11949,13 +11962,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -11967,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11975,13 +11988,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11993,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12001,25 +12014,25 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="D282" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>837</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12027,25 +12040,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="C283" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="D283" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>841</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12053,13 +12066,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="C284" s="29" t="s">
         <v>850</v>
       </c>
-      <c r="C284" s="29" t="s">
+      <c r="D284" s="28" t="s">
         <v>851</v>
-      </c>
-      <c r="D284" s="28" t="s">
-        <v>852</v>
       </c>
       <c r="E284" s="29">
         <v>1</v>
@@ -12079,25 +12092,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="D285" s="28" t="s">
         <v>847</v>
       </c>
-      <c r="C285" s="29" t="s">
-        <v>846</v>
-      </c>
-      <c r="D285" s="28" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>848</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12105,13 +12118,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
+        <v>852</v>
+      </c>
+      <c r="C286" s="29" t="s">
         <v>853</v>
       </c>
-      <c r="C286" s="29" t="s">
+      <c r="D286" s="28" t="s">
         <v>854</v>
-      </c>
-      <c r="D286" s="28" t="s">
-        <v>855</v>
       </c>
       <c r="E286" s="29">
         <v>1</v>
@@ -12131,13 +12144,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="C287" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>856</v>
-      </c>
-      <c r="C287" s="27" t="s">
-        <v>858</v>
-      </c>
-      <c r="D287" s="26" t="s">
-        <v>857</v>
       </c>
       <c r="E287" s="27">
         <v>0</v>
@@ -12157,13 +12170,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="15" t="s">
+        <v>858</v>
+      </c>
+      <c r="C288" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="D288" s="15" t="s">
         <v>860</v>
-      </c>
-      <c r="D288" s="15" t="s">
-        <v>861</v>
       </c>
       <c r="E288" s="17">
         <v>0</v>
@@ -12183,25 +12196,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="D289" s="18" t="s">
         <v>863</v>
       </c>
-      <c r="D289" s="18" t="s">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
         <v>864</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="I289" s="19" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12209,25 +12222,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="C290" s="30" t="s">
         <v>866</v>
       </c>
-      <c r="C290" s="30" t="s">
+      <c r="D290" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="D290" s="30" t="s">
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>868</v>
-      </c>
-      <c r="E290" s="30">
-        <v>1</v>
-      </c>
-      <c r="F290" s="30">
-        <v>1</v>
-      </c>
-      <c r="G290" s="30">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12235,14 +12248,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="C291" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="C291" s="30" t="s">
+      <c r="D291" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="D291" s="30" t="s">
-        <v>872</v>
-      </c>
       <c r="E291" s="30">
         <v>1</v>
       </c>
@@ -12253,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12261,13 +12274,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="C292" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="D292" s="20" t="s">
         <v>875</v>
-      </c>
-      <c r="D292" s="20" t="s">
-        <v>876</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12287,13 +12300,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="C293" s="15" t="s">
         <v>877</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="D293" s="20" t="s">
         <v>878</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>879</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12313,13 +12326,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="D294" s="18" t="s">
         <v>880</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>873</v>
-      </c>
-      <c r="D294" s="18" t="s">
-        <v>881</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12340,13 +12353,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
+        <v>883</v>
+      </c>
+      <c r="C295" s="15" t="s">
         <v>884</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="D295" s="18" t="s">
         <v>885</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>886</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12359,7 +12372,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12394,13 +12407,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="C296" s="15" t="s">
         <v>888</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="D296" s="18" t="s">
         <v>889</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>890</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12413,7 +12426,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12448,13 +12461,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="D297" s="18" t="s">
         <v>893</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>894</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12467,7 +12480,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12502,13 +12515,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="40" t="s">
+        <v>894</v>
+      </c>
+      <c r="C298" s="41" t="s">
+        <v>897</v>
+      </c>
+      <c r="D298" s="40" t="s">
         <v>895</v>
-      </c>
-      <c r="C298" s="41" t="s">
-        <v>898</v>
-      </c>
-      <c r="D298" s="40" t="s">
-        <v>896</v>
       </c>
       <c r="E298" s="30">
         <v>1</v>
@@ -12521,7 +12534,7 @@
       </c>
       <c r="H298" s="30"/>
       <c r="I298" s="42" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12556,13 +12569,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="43" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C299" s="44" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D299" s="43" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E299" s="45">
         <v>1</v>
@@ -12575,7 +12588,7 @@
       </c>
       <c r="H299" s="45"/>
       <c r="I299" s="44" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12610,13 +12623,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="43" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C300" s="44" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D300" s="43" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E300" s="45">
         <v>1</v>
@@ -12629,7 +12642,7 @@
       </c>
       <c r="H300" s="45"/>
       <c r="I300" s="44" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12637,13 +12650,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="43" t="s">
+        <v>946</v>
+      </c>
+      <c r="C301" s="43" t="s">
+        <v>898</v>
+      </c>
+      <c r="D301" s="43" t="s">
         <v>947</v>
-      </c>
-      <c r="C301" s="43" t="s">
-        <v>899</v>
-      </c>
-      <c r="D301" s="43" t="s">
-        <v>948</v>
       </c>
       <c r="E301" s="45">
         <v>1</v>
@@ -12664,13 +12677,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="C302" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="D302" s="17" t="s">
         <v>901</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>902</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12683,7 +12696,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12691,13 +12704,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12710,7 +12723,7 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
@@ -12718,13 +12731,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="40" t="s">
+        <v>909</v>
+      </c>
+      <c r="C304" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="C304" s="41" t="s">
+      <c r="D304" s="40" t="s">
         <v>911</v>
-      </c>
-      <c r="D304" s="40" t="s">
-        <v>912</v>
       </c>
       <c r="E304" s="30">
         <v>1</v>
@@ -12737,7 +12750,7 @@
       </c>
       <c r="H304" s="30"/>
       <c r="I304" s="41" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12745,14 +12758,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="C305" s="15" t="s">
         <v>913</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="D305" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="D305" s="18" t="s">
-        <v>915</v>
-      </c>
       <c r="E305" s="17">
         <v>1</v>
       </c>
@@ -12763,7 +12776,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12771,25 +12784,25 @@
         <v>305</v>
       </c>
       <c r="B306" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="C306" s="15" t="s">
         <v>916</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="D306" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="D306" s="18" t="s">
+      <c r="E306" s="17">
+        <v>1</v>
+      </c>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
+      <c r="G306" s="17">
+        <v>1</v>
+      </c>
+      <c r="I306" s="15" t="s">
         <v>918</v>
-      </c>
-      <c r="E306" s="17">
-        <v>1</v>
-      </c>
-      <c r="F306" s="17">
-        <v>1</v>
-      </c>
-      <c r="G306" s="17">
-        <v>1</v>
-      </c>
-      <c r="I306" s="15" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12797,13 +12810,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="D307" s="18" t="s">
         <v>923</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>924</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -12820,25 +12833,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="39" t="s">
+        <v>924</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>927</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12846,13 +12859,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="39" t="s">
+        <v>928</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="39" t="s">
         <v>930</v>
-      </c>
-      <c r="D309" s="39" t="s">
-        <v>931</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12872,25 +12885,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>931</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>933</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>934</v>
-      </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12898,25 +12911,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="39" t="s">
+        <v>935</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="39" t="s">
         <v>937</v>
       </c>
-      <c r="D311" s="39" t="s">
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>938</v>
-      </c>
-      <c r="E311" s="17">
-        <v>1</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12924,10 +12937,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="31" t="s">
+        <v>939</v>
+      </c>
+      <c r="C312" s="32" t="s">
         <v>940</v>
-      </c>
-      <c r="C312" s="32" t="s">
-        <v>941</v>
       </c>
       <c r="D312" s="23"/>
       <c r="E312" s="23">
@@ -12941,7 +12954,7 @@
       </c>
       <c r="H312" s="23"/>
       <c r="I312" s="32" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
@@ -12949,10 +12962,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="31" t="s">
+        <v>941</v>
+      </c>
+      <c r="C313" s="32" t="s">
         <v>942</v>
-      </c>
-      <c r="C313" s="32" t="s">
-        <v>943</v>
       </c>
       <c r="D313" s="23"/>
       <c r="E313" s="23">
@@ -12966,7 +12979,7 @@
       </c>
       <c r="H313" s="23"/>
       <c r="I313" s="32" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12974,10 +12987,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="36" t="s">
+        <v>948</v>
+      </c>
+      <c r="C314" s="37" t="s">
         <v>949</v>
-      </c>
-      <c r="C314" s="37" t="s">
-        <v>950</v>
       </c>
       <c r="D314" s="38"/>
       <c r="E314" s="38">
@@ -12991,7 +13004,7 @@
       </c>
       <c r="H314" s="38"/>
       <c r="I314" s="37" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12999,10 +13012,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="36" t="s">
+        <v>951</v>
+      </c>
+      <c r="C315" s="37" t="s">
         <v>952</v>
-      </c>
-      <c r="C315" s="37" t="s">
-        <v>953</v>
       </c>
       <c r="D315" s="38"/>
       <c r="E315" s="38">
@@ -13016,7 +13029,7 @@
       </c>
       <c r="H315" s="38"/>
       <c r="I315" s="37" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13024,7 +13037,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C316" s="38"/>
       <c r="D316" s="38"/>
@@ -13039,7 +13052,7 @@
       </c>
       <c r="H316" s="38"/>
       <c r="I316" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13047,7 +13060,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="36" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C317" s="38"/>
       <c r="D317" s="38"/>
@@ -13062,7 +13075,7 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
@@ -13070,10 +13083,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="C318" s="37" t="s">
         <v>959</v>
-      </c>
-      <c r="C318" s="37" t="s">
-        <v>960</v>
       </c>
       <c r="D318" s="38"/>
       <c r="E318" s="38">
@@ -13087,7 +13100,7 @@
       </c>
       <c r="H318" s="38"/>
       <c r="I318" s="37" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -13095,10 +13108,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
+        <v>960</v>
+      </c>
+      <c r="C319" s="37" t="s">
         <v>961</v>
-      </c>
-      <c r="C319" s="37" t="s">
-        <v>962</v>
       </c>
       <c r="D319" s="38"/>
       <c r="E319" s="38">
@@ -13112,7 +13125,7 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13120,13 +13133,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="50" t="s">
+        <v>968</v>
+      </c>
+      <c r="C320" s="51" t="s">
         <v>969</v>
       </c>
-      <c r="C320" s="51" t="s">
+      <c r="D320" s="50" t="s">
         <v>970</v>
-      </c>
-      <c r="D320" s="50" t="s">
-        <v>971</v>
       </c>
       <c r="E320" s="2">
         <v>1</v>
@@ -13139,7 +13152,7 @@
       </c>
       <c r="H320" s="2"/>
       <c r="I320" s="51" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13147,13 +13160,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="50" t="s">
+        <v>972</v>
+      </c>
+      <c r="C321" s="51" t="s">
         <v>973</v>
       </c>
-      <c r="C321" s="51" t="s">
+      <c r="D321" s="50" t="s">
         <v>974</v>
-      </c>
-      <c r="D321" s="50" t="s">
-        <v>975</v>
       </c>
       <c r="E321" s="2">
         <v>1</v>
@@ -13166,7 +13179,7 @@
       </c>
       <c r="H321" s="2"/>
       <c r="I321" s="51" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
@@ -13174,10 +13187,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="50" t="s">
+        <v>975</v>
+      </c>
+      <c r="C322" s="51" t="s">
         <v>976</v>
-      </c>
-      <c r="C322" s="51" t="s">
-        <v>977</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2">
@@ -13191,7 +13204,7 @@
       </c>
       <c r="H322" s="2"/>
       <c r="I322" s="51" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13199,7 +13212,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -13214,7 +13227,7 @@
       </c>
       <c r="H323" s="2"/>
       <c r="I323" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13222,13 +13235,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="50" t="s">
+        <v>980</v>
+      </c>
+      <c r="C324" s="50" t="s">
         <v>981</v>
       </c>
-      <c r="C324" s="50" t="s">
+      <c r="D324" s="50" t="s">
         <v>982</v>
-      </c>
-      <c r="D324" s="50" t="s">
-        <v>983</v>
       </c>
       <c r="E324" s="2">
         <v>1</v>
@@ -13241,7 +13254,7 @@
       </c>
       <c r="H324" s="2"/>
       <c r="I324" s="51" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="993">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4213,6 +4213,64 @@
         <scheme val="minor"/>
       </rPr>
       <t>9号关闭</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_005_fudai</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4853,13 +4911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ324"/>
+  <dimension ref="A1:AJ327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I273" sqref="I273"/>
+      <selection pane="bottomRight" activeCell="B329" sqref="B329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13257,6 +13315,81 @@
         <v>983</v>
       </c>
     </row>
+    <row r="325" spans="1:9" ht="16.5">
+      <c r="A325" s="16">
+        <v>324</v>
+      </c>
+      <c r="B325" s="50" t="s">
+        <v>985</v>
+      </c>
+      <c r="C325" s="52" t="s">
+        <v>986</v>
+      </c>
+      <c r="D325" s="2"/>
+      <c r="E325" s="2">
+        <v>1</v>
+      </c>
+      <c r="F325" s="2">
+        <v>1</v>
+      </c>
+      <c r="G325" s="2">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2"/>
+      <c r="I325" s="51" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="16.5">
+      <c r="A326" s="16">
+        <v>325</v>
+      </c>
+      <c r="B326" s="50" t="s">
+        <v>988</v>
+      </c>
+      <c r="C326" s="52" t="s">
+        <v>989</v>
+      </c>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2">
+        <v>1</v>
+      </c>
+      <c r="F326" s="2">
+        <v>1</v>
+      </c>
+      <c r="G326" s="2">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2"/>
+      <c r="I326" s="51" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="16.5">
+      <c r="A327" s="16">
+        <v>326</v>
+      </c>
+      <c r="B327" s="50" t="s">
+        <v>990</v>
+      </c>
+      <c r="C327" s="52" t="s">
+        <v>991</v>
+      </c>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2">
+        <v>1</v>
+      </c>
+      <c r="F327" s="2">
+        <v>1</v>
+      </c>
+      <c r="G327" s="2">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2"/>
+      <c r="I327" s="51" t="s">
+        <v>992</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="985">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4188,6 +4188,19 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_048_xnsmt</t>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+  </si>
+  <si>
+    <t>Act_048_XNSMTManager</t>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4827,13 +4840,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ323"/>
+  <dimension ref="A1:AJ324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C253" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C316" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E263" sqref="E263"/>
+      <selection pane="bottomRight" activeCell="B329" sqref="B329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13204,6 +13217,33 @@
         <v>980</v>
       </c>
     </row>
+    <row r="324" spans="1:9" ht="16.5">
+      <c r="A324" s="16">
+        <v>323</v>
+      </c>
+      <c r="B324" s="50" t="s">
+        <v>981</v>
+      </c>
+      <c r="C324" s="50" t="s">
+        <v>982</v>
+      </c>
+      <c r="D324" s="50" t="s">
+        <v>983</v>
+      </c>
+      <c r="E324" s="2">
+        <v>1</v>
+      </c>
+      <c r="F324" s="2">
+        <v>1</v>
+      </c>
+      <c r="G324" s="2">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2"/>
+      <c r="I324" s="51" t="s">
+        <v>984</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2750,10 +2750,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>永久关闭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>红包分享</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4162,6 +4158,10 @@
   </si>
   <si>
     <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4364,7 +4364,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4508,6 +4508,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4789,10 +4795,10 @@
   <dimension ref="A1:AJ321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B306" sqref="B306"/>
+      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5484,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -6192,7 +6198,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6218,7 +6224,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6314,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6738,7 +6744,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>221</v>
@@ -6785,30 +6791,30 @@
         <v>645</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5">
-      <c r="A77" s="16">
+    <row r="77" spans="1:9" s="23" customFormat="1" ht="16.5">
+      <c r="A77" s="48">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="E77" s="5">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>651</v>
+      <c r="E77" s="48">
+        <v>1</v>
+      </c>
+      <c r="F77" s="23">
+        <v>1</v>
+      </c>
+      <c r="G77" s="23">
+        <v>1</v>
+      </c>
+      <c r="I77" s="49" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -7458,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -8561,7 +8567,7 @@
         <v>429</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>430</v>
@@ -8587,7 +8593,7 @@
         <v>431</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>432</v>
@@ -8602,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8628,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8899,7 +8905,7 @@
         <v>465</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>466</v>
@@ -9044,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9280,10 +9286,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>660</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>661</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5">
@@ -10525,7 +10531,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C226" t="s">
         <v>608</v>
@@ -10643,7 +10649,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -10709,13 +10715,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="C234" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>656</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>657</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -10732,13 +10738,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C235" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="D235" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>665</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -10755,14 +10761,14 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>668</v>
-      </c>
       <c r="E236">
         <v>0</v>
       </c>
@@ -10773,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10781,25 +10787,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="I237" s="9" t="s">
         <v>669</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="E237">
-        <v>0</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10807,25 +10813,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="D238" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>675</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -10833,25 +10839,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="D239" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C239" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="D239" s="9" t="s">
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>678</v>
-      </c>
-      <c r="E239">
-        <v>0</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10859,25 +10865,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" t="s">
         <v>684</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -10885,25 +10891,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>688</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -10911,25 +10917,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>692</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -10937,25 +10943,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>700</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -10963,25 +10969,25 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="C244" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="D244" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="I244" s="9" t="s">
         <v>704</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="G244">
-        <v>1</v>
-      </c>
-      <c r="I244" s="9" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -10989,13 +10995,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11007,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11015,13 +11021,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11033,7 +11039,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11041,13 +11047,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11059,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11067,25 +11073,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="D248" s="9" t="s">
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11093,25 +11099,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D249" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="C249" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="D249" s="9" t="s">
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
         <v>724</v>
-      </c>
-      <c r="E249">
-        <v>0</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11119,25 +11125,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="D250" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="D250" s="9" t="s">
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11145,25 +11151,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="C251" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="D251" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
         <v>732</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="9" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -11171,25 +11177,25 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="C252" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="D252" s="9" t="s">
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>735</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -11197,14 +11203,14 @@
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="C253" t="s">
+        <v>741</v>
+      </c>
+      <c r="D253" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="C253" t="s">
-        <v>742</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>740</v>
-      </c>
       <c r="E253">
         <v>0</v>
       </c>
@@ -11215,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="I253" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -11223,13 +11229,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="C254" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="D254" s="24" t="s">
         <v>952</v>
-      </c>
-      <c r="C254" s="25" t="s">
-        <v>741</v>
-      </c>
-      <c r="D254" s="24" t="s">
-        <v>953</v>
       </c>
       <c r="E254" s="25">
         <v>0</v>
@@ -11242,7 +11248,7 @@
       </c>
       <c r="H254" s="25"/>
       <c r="I254" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11250,25 +11256,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>746</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5">
@@ -11276,25 +11282,25 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C256" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="D256" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="I256" s="9" t="s">
         <v>750</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -11302,13 +11308,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="C257" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>752</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="D257" s="15" t="s">
-        <v>753</v>
       </c>
       <c r="E257" s="17">
         <v>1</v>
@@ -11321,7 +11327,7 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11329,14 +11335,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C258" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>756</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11347,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11355,14 +11361,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="D259" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="D259" s="15" t="s">
-        <v>760</v>
-      </c>
       <c r="E259" s="17">
         <v>0</v>
       </c>
@@ -11373,7 +11379,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11381,25 +11387,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="C260" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>763</v>
-      </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11407,25 +11413,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="C261" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="D261" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="D261" s="15" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>767</v>
-      </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11433,25 +11439,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>768</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="D262" t="s">
         <v>769</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>770</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5">
@@ -11459,13 +11465,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="D263" s="15" t="s">
         <v>774</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>775</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11485,25 +11491,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="D264" s="15" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>778</v>
-      </c>
-      <c r="E264" s="17">
-        <v>0</v>
-      </c>
-      <c r="F264" s="17">
-        <v>0</v>
-      </c>
-      <c r="G264" s="17">
-        <v>0</v>
-      </c>
-      <c r="I264" s="15" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11511,13 +11517,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="D265" s="15" t="s">
         <v>781</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>782</v>
       </c>
       <c r="E265" s="17">
         <v>0</v>
@@ -11537,25 +11543,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C266" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="D266" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="D266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
         <v>785</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11563,25 +11569,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>789</v>
-      </c>
-      <c r="D267" s="18" t="s">
-        <v>788</v>
-      </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11589,14 +11595,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="D268" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="C268" s="15" t="s">
-        <v>793</v>
-      </c>
-      <c r="D268" s="18" t="s">
-        <v>792</v>
-      </c>
       <c r="E268" s="17">
         <v>0</v>
       </c>
@@ -11607,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="I268" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11615,14 +11621,14 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C269" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="D269" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="D269" s="18" t="s">
-        <v>796</v>
-      </c>
       <c r="E269" s="17">
         <v>0</v>
       </c>
@@ -11633,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="I269" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11641,13 +11647,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="C270" s="15" t="s">
-        <v>799</v>
-      </c>
       <c r="D270" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11659,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="I270" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11667,14 +11673,14 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C271" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="D271" s="18" t="s">
         <v>801</v>
       </c>
-      <c r="D271" s="18" t="s">
-        <v>802</v>
-      </c>
       <c r="E271" s="17">
         <v>1</v>
       </c>
@@ -11685,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11693,25 +11699,25 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="D272" s="18" t="s">
         <v>804</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
         <v>806</v>
-      </c>
-      <c r="D272" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="E272" s="17">
-        <v>1</v>
-      </c>
-      <c r="F272" s="17">
-        <v>1</v>
-      </c>
-      <c r="G272" s="17">
-        <v>1</v>
-      </c>
-      <c r="I272" s="19" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11719,14 +11725,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="C273" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="D273" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="D273" s="18" t="s">
-        <v>810</v>
-      </c>
       <c r="E273" s="17">
         <v>1</v>
       </c>
@@ -11737,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11745,14 +11751,14 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="C274" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="D274" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="C274" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>813</v>
-      </c>
       <c r="E274" s="17">
         <v>1</v>
       </c>
@@ -11763,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11771,14 +11777,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C275" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="D275" s="18" t="s">
         <v>815</v>
       </c>
-      <c r="D275" s="18" t="s">
-        <v>816</v>
-      </c>
       <c r="E275" s="17">
         <v>0</v>
       </c>
@@ -11789,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11797,25 +11803,25 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="D276" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="C276" s="15" t="s">
-        <v>819</v>
-      </c>
-      <c r="D276" s="18" t="s">
+      <c r="E276" s="17">
+        <v>0</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>821</v>
-      </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11823,22 +11829,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="C277" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="C277" s="15" t="s">
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>1</v>
+      </c>
+      <c r="G277" s="17">
+        <v>1</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>824</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>1</v>
-      </c>
-      <c r="G277" s="17">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11846,25 +11852,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="D278" s="18" t="s">
         <v>826</v>
       </c>
-      <c r="C278" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D278" s="18" t="s">
+      <c r="E278" s="17">
+        <v>0</v>
+      </c>
+      <c r="F278" s="17">
+        <v>0</v>
+      </c>
+      <c r="G278" s="17">
+        <v>0</v>
+      </c>
+      <c r="I278" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="E278" s="17">
-        <v>0</v>
-      </c>
-      <c r="F278" s="17">
-        <v>0</v>
-      </c>
-      <c r="G278" s="17">
-        <v>0</v>
-      </c>
-      <c r="I278" s="19" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11872,13 +11878,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11890,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11898,22 +11904,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
         <v>831</v>
-      </c>
-      <c r="C280" s="15" t="s">
-        <v>830</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11921,13 +11927,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11939,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -11947,13 +11953,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11965,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -11973,25 +11979,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="D283" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>841</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5">
@@ -11999,25 +12005,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="20" t="s">
+        <v>842</v>
+      </c>
+      <c r="C284" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="D284" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="D284" s="18" t="s">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="19" t="s">
         <v>845</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="19" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12025,13 +12031,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="C285" s="29" t="s">
         <v>854</v>
       </c>
-      <c r="C285" s="29" t="s">
+      <c r="D285" s="28" t="s">
         <v>855</v>
-      </c>
-      <c r="D285" s="28" t="s">
-        <v>856</v>
       </c>
       <c r="E285" s="29">
         <v>1</v>
@@ -12051,25 +12057,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="C286" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="D286" s="28" t="s">
         <v>851</v>
       </c>
-      <c r="C286" s="29" t="s">
-        <v>850</v>
-      </c>
-      <c r="D286" s="28" t="s">
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="29">
+        <v>1</v>
+      </c>
+      <c r="G286" s="29">
+        <v>1</v>
+      </c>
+      <c r="I286" s="29" t="s">
         <v>852</v>
-      </c>
-      <c r="E286" s="29">
-        <v>1</v>
-      </c>
-      <c r="F286" s="29">
-        <v>1</v>
-      </c>
-      <c r="G286" s="29">
-        <v>1</v>
-      </c>
-      <c r="I286" s="29" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12077,13 +12083,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="29" t="s">
+        <v>856</v>
+      </c>
+      <c r="C287" s="29" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="29" t="s">
+      <c r="D287" s="28" t="s">
         <v>858</v>
-      </c>
-      <c r="D287" s="28" t="s">
-        <v>859</v>
       </c>
       <c r="E287" s="29">
         <v>1</v>
@@ -12103,13 +12109,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="C288" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="D288" s="26" t="s">
         <v>860</v>
-      </c>
-      <c r="C288" s="27" t="s">
-        <v>862</v>
-      </c>
-      <c r="D288" s="26" t="s">
-        <v>861</v>
       </c>
       <c r="E288" s="27">
         <v>0</v>
@@ -12129,14 +12135,14 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="D289" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="D289" s="15" t="s">
-        <v>865</v>
-      </c>
       <c r="E289" s="17">
         <v>0</v>
       </c>
@@ -12147,7 +12153,7 @@
         <v>0</v>
       </c>
       <c r="I289" s="15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="290" spans="1:36" ht="16.5">
@@ -12155,25 +12161,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="C290" s="15" t="s">
         <v>866</v>
       </c>
-      <c r="C290" s="15" t="s">
+      <c r="D290" s="18" t="s">
         <v>867</v>
       </c>
-      <c r="D290" s="18" t="s">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="19" t="s">
         <v>868</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="19" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12181,25 +12187,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="C291" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="C291" s="30" t="s">
+      <c r="D291" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="D291" s="30" t="s">
+      <c r="E291" s="30">
+        <v>1</v>
+      </c>
+      <c r="F291" s="30">
+        <v>1</v>
+      </c>
+      <c r="G291" s="30">
+        <v>1</v>
+      </c>
+      <c r="I291" s="30" t="s">
         <v>872</v>
-      </c>
-      <c r="E291" s="30">
-        <v>1</v>
-      </c>
-      <c r="F291" s="30">
-        <v>1</v>
-      </c>
-      <c r="G291" s="30">
-        <v>1</v>
-      </c>
-      <c r="I291" s="30" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="292" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12207,14 +12213,14 @@
         <v>291</v>
       </c>
       <c r="B292" s="30" t="s">
+        <v>873</v>
+      </c>
+      <c r="C292" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="C292" s="30" t="s">
+      <c r="D292" s="30" t="s">
         <v>875</v>
       </c>
-      <c r="D292" s="30" t="s">
-        <v>876</v>
-      </c>
       <c r="E292" s="30">
         <v>1</v>
       </c>
@@ -12225,7 +12231,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="30" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -12233,14 +12239,14 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="C293" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="D293" s="20" t="s">
         <v>879</v>
       </c>
-      <c r="D293" s="20" t="s">
-        <v>880</v>
-      </c>
       <c r="E293">
         <v>0</v>
       </c>
@@ -12251,7 +12257,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
@@ -12259,14 +12265,14 @@
         <v>293</v>
       </c>
       <c r="B294" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="C294" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="C294" s="15" t="s">
+      <c r="D294" s="20" t="s">
         <v>882</v>
       </c>
-      <c r="D294" s="20" t="s">
-        <v>883</v>
-      </c>
       <c r="E294">
         <v>0</v>
       </c>
@@ -12277,7 +12283,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="295" spans="1:36" ht="16.5">
@@ -12285,13 +12291,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
+        <v>883</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="D295" s="18" t="s">
         <v>884</v>
-      </c>
-      <c r="C295" s="15" t="s">
-        <v>877</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>885</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12304,7 +12310,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5">
@@ -12312,13 +12318,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="C296" s="15" t="s">
         <v>888</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="D296" s="18" t="s">
         <v>889</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>890</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12331,7 +12337,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12366,13 +12372,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="D297" s="18" t="s">
         <v>893</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>894</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12385,7 +12391,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12420,10 +12426,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D298" s="17"/>
       <c r="E298" s="17">
@@ -12437,7 +12443,7 @@
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="15" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12472,13 +12478,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="C299" s="15" t="s">
         <v>897</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="D299" s="18" t="s">
         <v>898</v>
-      </c>
-      <c r="D299" s="18" t="s">
-        <v>899</v>
       </c>
       <c r="E299" s="17">
         <v>0</v>
@@ -12491,7 +12497,7 @@
       </c>
       <c r="H299" s="17"/>
       <c r="I299" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12526,13 +12532,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="40" t="s">
+        <v>899</v>
+      </c>
+      <c r="C300" s="41" t="s">
+        <v>902</v>
+      </c>
+      <c r="D300" s="40" t="s">
         <v>900</v>
-      </c>
-      <c r="C300" s="41" t="s">
-        <v>903</v>
-      </c>
-      <c r="D300" s="40" t="s">
-        <v>901</v>
       </c>
       <c r="E300" s="30">
         <v>1</v>
@@ -12545,7 +12551,7 @@
       </c>
       <c r="H300" s="30"/>
       <c r="I300" s="42" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J300" s="17"/>
       <c r="K300" s="17"/>
@@ -12580,13 +12586,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C301" s="44" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D301" s="43" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E301" s="45">
         <v>1</v>
@@ -12599,7 +12605,7 @@
       </c>
       <c r="H301" s="45"/>
       <c r="I301" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12634,13 +12640,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C302" s="44" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D302" s="43" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E302" s="45">
         <v>1</v>
@@ -12653,7 +12659,7 @@
       </c>
       <c r="H302" s="45"/>
       <c r="I302" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12661,13 +12667,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="43" t="s">
+        <v>953</v>
+      </c>
+      <c r="C303" s="43" t="s">
+        <v>903</v>
+      </c>
+      <c r="D303" s="43" t="s">
         <v>954</v>
-      </c>
-      <c r="C303" s="43" t="s">
-        <v>904</v>
-      </c>
-      <c r="D303" s="43" t="s">
-        <v>955</v>
       </c>
       <c r="E303" s="45">
         <v>1</v>
@@ -12688,13 +12694,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="C304" s="17" t="s">
         <v>905</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="D304" s="17" t="s">
         <v>906</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>907</v>
       </c>
       <c r="E304" s="17">
         <v>1</v>
@@ -12707,7 +12713,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12715,13 +12721,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E305" s="17">
         <v>1</v>
@@ -12734,7 +12740,7 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12742,13 +12748,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="40" t="s">
+        <v>916</v>
+      </c>
+      <c r="C306" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="C306" s="41" t="s">
+      <c r="D306" s="40" t="s">
         <v>918</v>
-      </c>
-      <c r="D306" s="40" t="s">
-        <v>919</v>
       </c>
       <c r="E306" s="30">
         <v>1</v>
@@ -12761,7 +12767,7 @@
       </c>
       <c r="H306" s="30"/>
       <c r="I306" s="41" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12769,14 +12775,14 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="D307" s="18" t="s">
         <v>921</v>
       </c>
-      <c r="D307" s="18" t="s">
-        <v>922</v>
-      </c>
       <c r="E307" s="17">
         <v>1</v>
       </c>
@@ -12787,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12795,25 +12801,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>924</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>925</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12821,13 +12827,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>928</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="18" t="s">
         <v>930</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>931</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12844,25 +12850,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="39" t="s">
+        <v>931</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>933</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="15" t="s">
         <v>934</v>
-      </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="15" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12870,13 +12876,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="39" t="s">
+        <v>935</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="39" t="s">
         <v>937</v>
-      </c>
-      <c r="D311" s="39" t="s">
-        <v>938</v>
       </c>
       <c r="E311" s="17">
         <v>1</v>
@@ -12896,25 +12902,25 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="D312" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="D312" s="18" t="s">
+      <c r="E312" s="17">
+        <v>1</v>
+      </c>
+      <c r="F312" s="17">
+        <v>1</v>
+      </c>
+      <c r="G312" s="17">
+        <v>1</v>
+      </c>
+      <c r="I312" s="19" t="s">
         <v>941</v>
-      </c>
-      <c r="E312" s="17">
-        <v>1</v>
-      </c>
-      <c r="F312" s="17">
-        <v>1</v>
-      </c>
-      <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="I312" s="19" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12922,25 +12928,25 @@
         <v>312</v>
       </c>
       <c r="B313" s="39" t="s">
+        <v>942</v>
+      </c>
+      <c r="C313" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="D313" s="39" t="s">
         <v>944</v>
       </c>
-      <c r="D313" s="39" t="s">
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
         <v>945</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12948,10 +12954,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="31" t="s">
+        <v>946</v>
+      </c>
+      <c r="C314" s="32" t="s">
         <v>947</v>
-      </c>
-      <c r="C314" s="32" t="s">
-        <v>948</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23">
@@ -12965,7 +12971,7 @@
       </c>
       <c r="H314" s="23"/>
       <c r="I314" s="32" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12973,10 +12979,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="31" t="s">
+        <v>948</v>
+      </c>
+      <c r="C315" s="32" t="s">
         <v>949</v>
-      </c>
-      <c r="C315" s="32" t="s">
-        <v>950</v>
       </c>
       <c r="D315" s="23"/>
       <c r="E315" s="23">
@@ -12990,7 +12996,7 @@
       </c>
       <c r="H315" s="23"/>
       <c r="I315" s="32" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="16.5">
@@ -12998,10 +13004,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
+        <v>955</v>
+      </c>
+      <c r="C316" s="37" t="s">
         <v>956</v>
-      </c>
-      <c r="C316" s="37" t="s">
-        <v>957</v>
       </c>
       <c r="D316" s="38"/>
       <c r="E316" s="38">
@@ -13015,7 +13021,7 @@
       </c>
       <c r="H316" s="38"/>
       <c r="I316" s="37" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
@@ -13023,10 +13029,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="C317" s="37" t="s">
         <v>959</v>
-      </c>
-      <c r="C317" s="37" t="s">
-        <v>960</v>
       </c>
       <c r="D317" s="38"/>
       <c r="E317" s="38">
@@ -13040,7 +13046,7 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13048,7 +13054,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C318" s="38"/>
       <c r="D318" s="38"/>
@@ -13063,7 +13069,7 @@
       </c>
       <c r="H318" s="38"/>
       <c r="I318" s="37" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13071,7 +13077,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C319" s="38"/>
       <c r="D319" s="38"/>
@@ -13086,7 +13092,7 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13094,10 +13100,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="36" t="s">
+        <v>965</v>
+      </c>
+      <c r="C320" s="37" t="s">
         <v>966</v>
-      </c>
-      <c r="C320" s="37" t="s">
-        <v>967</v>
       </c>
       <c r="D320" s="38"/>
       <c r="E320" s="38">
@@ -13111,7 +13117,7 @@
       </c>
       <c r="H320" s="38"/>
       <c r="I320" s="37" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13119,10 +13125,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="36" t="s">
+        <v>967</v>
+      </c>
+      <c r="C321" s="37" t="s">
         <v>968</v>
-      </c>
-      <c r="C321" s="37" t="s">
-        <v>969</v>
       </c>
       <c r="D321" s="38"/>
       <c r="E321" s="38">
@@ -13136,7 +13142,7 @@
       </c>
       <c r="H321" s="38"/>
       <c r="I321" s="37" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -16,14 +16,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="972">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -647,15 +647,6 @@
   </si>
   <si>
     <t>SYSXYManager</t>
-  </si>
-  <si>
-    <t>hall_activity</t>
-  </si>
-  <si>
-    <t>系统：大厅活动</t>
-  </si>
-  <si>
-    <t>GameActivityManager</t>
   </si>
   <si>
     <t>sys_act_base</t>
@@ -4792,13 +4783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ321"/>
+  <dimension ref="A1:AJ320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4828,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -4840,7 +4831,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -4866,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -4892,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -4918,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -4944,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -4970,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -4996,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -5022,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -5048,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5074,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5100,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5126,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5152,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5178,7 +5169,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5204,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5230,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5256,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5282,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5308,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5334,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5360,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5386,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5412,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5438,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5464,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5490,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5501,7 +5492,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5516,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5542,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5568,7 +5559,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5594,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5620,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5646,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5672,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5698,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5724,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5750,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -5776,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -5802,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -5828,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -5854,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -5880,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -5906,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -5932,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -5958,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -5984,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -6010,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -6036,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -6062,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6073,7 +6064,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6088,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6114,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6140,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6164,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6190,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6198,7 +6189,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6216,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6224,7 +6215,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6242,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6268,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6294,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6320,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6346,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
@@ -6372,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6398,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6424,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6450,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6476,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6502,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6528,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6545,16 +6536,16 @@
         <v>199</v>
       </c>
       <c r="E67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6580,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6597,16 +6588,16 @@
         <v>205</v>
       </c>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6632,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6658,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6684,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6710,111 +6701,111 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E74" s="5">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="34" customFormat="1" ht="16.5">
+      <c r="E74" s="33">
+        <v>0</v>
+      </c>
+      <c r="F74" s="34">
+        <v>0</v>
+      </c>
+      <c r="G74" s="34">
+        <v>0</v>
+      </c>
+      <c r="I74" s="35" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="16">
         <v>74</v>
       </c>
-      <c r="B75" s="33" t="s">
-        <v>658</v>
-      </c>
-      <c r="C75" s="33" t="s">
+      <c r="B75" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="33">
-        <v>0</v>
-      </c>
-      <c r="F75" s="34">
-        <v>0</v>
-      </c>
-      <c r="G75" s="34">
-        <v>0</v>
-      </c>
-      <c r="I75" s="35" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="16.5">
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="5">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="23" customFormat="1" ht="16.5">
-      <c r="A77" s="48">
+      <c r="E76" s="48">
+        <v>1</v>
+      </c>
+      <c r="F76" s="23">
+        <v>1</v>
+      </c>
+      <c r="G76" s="23">
+        <v>1</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5">
+      <c r="A77" s="16">
         <v>76</v>
       </c>
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="48" t="s">
+      <c r="D77" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E77" s="48">
-        <v>1</v>
-      </c>
-      <c r="F77" s="23">
-        <v>1</v>
-      </c>
-      <c r="G77" s="23">
-        <v>1</v>
-      </c>
-      <c r="I77" s="49" t="s">
-        <v>974</v>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -6831,16 +6822,16 @@
         <v>231</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -6857,15 +6848,15 @@
         <v>234</v>
       </c>
       <c r="E79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="I79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6892,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -6918,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -6944,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -6970,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -6996,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -7013,16 +7004,16 @@
         <v>252</v>
       </c>
       <c r="E85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -7048,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7074,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7100,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7117,16 +7108,16 @@
         <v>264</v>
       </c>
       <c r="E89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7143,16 +7134,16 @@
         <v>267</v>
       </c>
       <c r="E90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7169,16 +7160,16 @@
         <v>270</v>
       </c>
       <c r="E91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7195,16 +7186,16 @@
         <v>273</v>
       </c>
       <c r="E92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7221,16 +7212,16 @@
         <v>276</v>
       </c>
       <c r="E93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7255,8 +7246,8 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>645</v>
+      <c r="I94" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7282,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7308,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7334,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7360,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7386,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7403,16 +7394,16 @@
         <v>297</v>
       </c>
       <c r="E100" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>650</v>
+        <v>1</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7429,16 +7420,16 @@
         <v>300</v>
       </c>
       <c r="E101" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7463,8 +7454,8 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="12" t="s">
-        <v>680</v>
+      <c r="I102" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7481,16 +7472,16 @@
         <v>306</v>
       </c>
       <c r="E103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7507,15 +7498,15 @@
         <v>309</v>
       </c>
       <c r="E104" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="I104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -7541,8 +7532,8 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="11" t="s">
-        <v>648</v>
+      <c r="I105" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7567,8 +7558,8 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="12" t="s">
-        <v>645</v>
+      <c r="I106" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7594,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7646,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7672,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7698,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7724,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7750,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7776,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -7802,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -7854,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -7880,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
@@ -7906,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -7932,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -7958,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -7984,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -8010,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -8036,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -8062,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8082,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8108,12 +8099,12 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="I127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -8140,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8166,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8192,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8218,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8244,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8296,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8322,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8348,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8374,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8400,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8426,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8452,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8478,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8495,16 +8486,16 @@
         <v>423</v>
       </c>
       <c r="E142" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8515,22 +8506,22 @@
         <v>424</v>
       </c>
       <c r="C143" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="E143" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8538,25 +8529,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="E144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8564,25 +8555,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="E145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8590,10 +8581,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>651</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>432</v>
@@ -8608,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8633,8 +8624,8 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="12" t="s">
-        <v>694</v>
+      <c r="I147" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8660,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8686,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8712,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8738,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8764,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -8790,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -8816,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -8842,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -8852,12 +8843,12 @@
       <c r="B156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -8868,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -8876,14 +8867,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -8893,8 +8884,8 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="11" t="s">
-        <v>648</v>
+      <c r="I157" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -8902,10 +8893,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>652</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>466</v>
@@ -8919,8 +8910,8 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="12" t="s">
-        <v>645</v>
+      <c r="I158" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -8946,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -8972,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -8998,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -9015,16 +9006,16 @@
         <v>478</v>
       </c>
       <c r="E162" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9041,16 +9032,16 @@
         <v>481</v>
       </c>
       <c r="E163" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="I163" s="12" t="s">
-        <v>695</v>
+        <v>0</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9064,19 +9055,19 @@
         <v>483</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>484</v>
+        <v>614</v>
       </c>
       <c r="E164" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9084,25 +9075,25 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>617</v>
-      </c>
       <c r="E165" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9112,23 +9103,23 @@
       <c r="B166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="E166" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="I166" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9136,25 +9127,25 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>639</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E167" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="I167" s="12" t="s">
-        <v>646</v>
+        <v>0</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9180,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9193,9 +9184,7 @@
       <c r="C169" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>497</v>
-      </c>
+      <c r="D169" s="5"/>
       <c r="E169" s="5">
         <v>0</v>
       </c>
@@ -9205,8 +9194,8 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="11" t="s">
-        <v>647</v>
+      <c r="I169" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9214,23 +9203,23 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9238,10 +9227,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9254,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9262,10 +9251,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>503</v>
+        <v>656</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>657</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9278,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9286,22 +9275,24 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="D173" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="E173" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="I173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I173" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -9315,9 +9306,7 @@
       <c r="C174" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>506</v>
-      </c>
+      <c r="D174" s="5"/>
       <c r="E174" s="5">
         <v>0</v>
       </c>
@@ -9328,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9336,23 +9325,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="I175" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9360,23 +9349,23 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="I176" s="12" t="s">
-        <v>644</v>
+        <v>0</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9384,23 +9373,25 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D177" s="5"/>
       <c r="E177" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9426,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9439,44 +9430,42 @@
       <c r="C179" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="D179" s="5"/>
       <c r="E179" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="I179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I179" s="11" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5">
+    <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A180" s="16">
         <v>179</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
+      <c r="D180" s="7"/>
+      <c r="E180" s="7">
+        <v>0</v>
+      </c>
+      <c r="F180" s="2">
+        <v>0</v>
+      </c>
+      <c r="G180" s="2">
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9484,10 +9473,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9500,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9508,10 +9497,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9524,31 +9513,30 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="16">
         <v>182</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" t="s">
         <v>525</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7">
-        <v>0</v>
-      </c>
-      <c r="F183" s="2">
-        <v>0</v>
-      </c>
-      <c r="G183" s="2">
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9556,11 +9544,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>526</v>
+      </c>
+      <c r="C184" t="s">
         <v>527</v>
       </c>
-      <c r="C184" t="s">
-        <v>528</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9571,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9579,11 +9567,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>528</v>
+      </c>
+      <c r="C185" t="s">
         <v>529</v>
       </c>
-      <c r="C185" t="s">
-        <v>530</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9594,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9602,11 +9590,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>530</v>
+      </c>
+      <c r="C186" t="s">
         <v>531</v>
       </c>
-      <c r="C186" t="s">
-        <v>532</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9617,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9625,11 +9613,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" t="s">
         <v>533</v>
       </c>
-      <c r="C187" t="s">
-        <v>534</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9640,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9648,11 +9636,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>534</v>
+      </c>
+      <c r="C188" t="s">
         <v>535</v>
       </c>
-      <c r="C188" t="s">
-        <v>536</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9663,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9671,11 +9659,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>536</v>
+      </c>
+      <c r="C189" t="s">
         <v>537</v>
       </c>
-      <c r="C189" t="s">
-        <v>538</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9686,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9694,11 +9682,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>538</v>
+      </c>
+      <c r="C190" t="s">
         <v>539</v>
       </c>
-      <c r="C190" t="s">
-        <v>540</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9709,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9717,11 +9705,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>540</v>
+      </c>
+      <c r="C191" t="s">
         <v>541</v>
       </c>
-      <c r="C191" t="s">
-        <v>542</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9732,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9740,11 +9728,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>542</v>
+      </c>
+      <c r="C192" t="s">
         <v>543</v>
       </c>
-      <c r="C192" t="s">
-        <v>544</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -9755,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -9763,11 +9751,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>544</v>
+      </c>
+      <c r="C193" t="s">
         <v>545</v>
       </c>
-      <c r="C193" t="s">
-        <v>546</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -9778,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -9786,11 +9774,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>546</v>
+      </c>
+      <c r="C194" t="s">
         <v>547</v>
       </c>
-      <c r="C194" t="s">
-        <v>548</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -9801,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -9809,11 +9797,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>548</v>
+      </c>
+      <c r="C195" t="s">
         <v>549</v>
       </c>
-      <c r="C195" t="s">
-        <v>550</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -9824,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -9832,10 +9820,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>550</v>
+      </c>
+      <c r="C196" t="s">
         <v>551</v>
-      </c>
-      <c r="C196" t="s">
-        <v>552</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -9855,11 +9843,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>552</v>
+      </c>
+      <c r="C197" t="s">
         <v>553</v>
       </c>
-      <c r="C197" t="s">
-        <v>554</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -9870,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -9878,11 +9866,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>554</v>
+      </c>
+      <c r="C198" t="s">
         <v>555</v>
       </c>
-      <c r="C198" t="s">
-        <v>556</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -9893,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -9901,11 +9889,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>556</v>
+      </c>
+      <c r="C199" t="s">
         <v>557</v>
       </c>
-      <c r="C199" t="s">
-        <v>558</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -9916,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -9924,11 +9912,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" t="s">
         <v>559</v>
       </c>
-      <c r="C200" t="s">
-        <v>560</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -9939,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -9947,11 +9935,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>560</v>
+      </c>
+      <c r="C201" t="s">
         <v>561</v>
       </c>
-      <c r="C201" t="s">
-        <v>562</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -9962,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -9970,11 +9958,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202" t="s">
         <v>563</v>
       </c>
-      <c r="C202" t="s">
-        <v>564</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -9985,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -9993,11 +9981,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>564</v>
+      </c>
+      <c r="C203" t="s">
         <v>565</v>
       </c>
-      <c r="C203" t="s">
-        <v>566</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -10008,30 +9996,33 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="16">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>567</v>
+      <c r="B204" s="9" t="s">
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>568</v>
+        <v>566</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>609</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="I204" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -10039,14 +10030,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C205" t="s">
+        <v>567</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C205" t="s">
-        <v>569</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -10057,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10065,14 +10056,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
+        <v>568</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C206" t="s">
-        <v>570</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10083,32 +10074,29 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="16">
         <v>206</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>615</v>
+      <c r="B207" t="s">
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>571</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="I207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I207" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -10117,11 +10105,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>571</v>
+      </c>
+      <c r="C208" t="s">
         <v>572</v>
       </c>
-      <c r="C208" t="s">
-        <v>573</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10132,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10140,11 +10128,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>573</v>
+      </c>
+      <c r="C209" t="s">
         <v>574</v>
       </c>
-      <c r="C209" t="s">
-        <v>575</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10155,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10163,11 +10151,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>575</v>
+      </c>
+      <c r="C210" t="s">
         <v>576</v>
       </c>
-      <c r="C210" t="s">
-        <v>577</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10178,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10186,22 +10174,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>577</v>
+      </c>
+      <c r="C211" t="s">
         <v>578</v>
       </c>
-      <c r="C211" t="s">
-        <v>579</v>
-      </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="I211" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I211" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10209,22 +10197,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>579</v>
+      </c>
+      <c r="C212" t="s">
         <v>580</v>
       </c>
-      <c r="C212" t="s">
-        <v>581</v>
-      </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="I212" s="12" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I212" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10232,11 +10220,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>581</v>
+      </c>
+      <c r="C213" t="s">
         <v>582</v>
       </c>
-      <c r="C213" t="s">
-        <v>583</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10247,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10255,11 +10243,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>583</v>
+      </c>
+      <c r="C214" t="s">
         <v>584</v>
       </c>
-      <c r="C214" t="s">
-        <v>585</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10270,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10278,11 +10266,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>585</v>
+      </c>
+      <c r="C215" t="s">
         <v>586</v>
       </c>
-      <c r="C215" t="s">
-        <v>587</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10293,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10301,11 +10289,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>587</v>
+      </c>
+      <c r="C216" t="s">
         <v>588</v>
       </c>
-      <c r="C216" t="s">
-        <v>589</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10316,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10324,10 +10312,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>589</v>
+      </c>
+      <c r="C217" t="s">
         <v>590</v>
-      </c>
-      <c r="C217" t="s">
-        <v>591</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10347,11 +10335,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>591</v>
+      </c>
+      <c r="C218" t="s">
         <v>592</v>
       </c>
-      <c r="C218" t="s">
-        <v>593</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10362,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10370,11 +10358,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>593</v>
+      </c>
+      <c r="C219" t="s">
         <v>594</v>
       </c>
-      <c r="C219" t="s">
-        <v>595</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10385,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10393,11 +10381,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>595</v>
+      </c>
+      <c r="C220" t="s">
         <v>596</v>
       </c>
-      <c r="C220" t="s">
-        <v>597</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10408,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10416,11 +10404,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>597</v>
+      </c>
+      <c r="C221" t="s">
         <v>598</v>
       </c>
-      <c r="C221" t="s">
-        <v>599</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10431,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10439,11 +10427,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>599</v>
+      </c>
+      <c r="C222" t="s">
         <v>600</v>
       </c>
-      <c r="C222" t="s">
-        <v>601</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10454,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10462,11 +10450,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>601</v>
+      </c>
+      <c r="C223" t="s">
         <v>602</v>
       </c>
-      <c r="C223" t="s">
-        <v>603</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10477,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10485,11 +10473,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>603</v>
+      </c>
+      <c r="C224" t="s">
         <v>604</v>
       </c>
-      <c r="C224" t="s">
-        <v>605</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10500,18 +10488,18 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="16">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>606</v>
+      <c r="B225" s="9" t="s">
+        <v>650</v>
       </c>
       <c r="C225" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10531,22 +10519,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="C226" t="s">
-        <v>608</v>
+        <v>617</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>616</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="I226" s="11" t="s">
-        <v>650</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
@@ -10554,13 +10542,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D227" t="s">
         <v>620</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10582,7 +10570,7 @@
       <c r="C228" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="9" t="s">
         <v>623</v>
       </c>
       <c r="E228">
@@ -10623,16 +10611,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>628</v>
+        <v>883</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -10646,16 +10634,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>886</v>
+        <v>629</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -10669,22 +10657,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5">
@@ -10692,22 +10680,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5">
@@ -10715,22 +10703,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5">
@@ -10738,10 +10726,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>663</v>
+        <v>807</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>664</v>
@@ -10754,6 +10742,9 @@
       </c>
       <c r="G235">
         <v>0</v>
+      </c>
+      <c r="I235" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -10761,10 +10752,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>810</v>
+        <v>668</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>667</v>
@@ -10778,8 +10769,8 @@
       <c r="G236">
         <v>0</v>
       </c>
-      <c r="I236" t="s">
-        <v>665</v>
+      <c r="I236" s="9" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10787,25 +10778,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C237" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="D237" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="D237" s="9" t="s">
-        <v>670</v>
-      </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>669</v>
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10813,16 +10804,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>674</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -10839,16 +10830,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>679</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -10857,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10865,13 +10856,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>682</v>
-      </c>
       <c r="D240" s="9" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -10882,8 +10873,8 @@
       <c r="G240">
         <v>1</v>
       </c>
-      <c r="I240" t="s">
-        <v>684</v>
+      <c r="I240" s="9" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -10891,13 +10882,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -10909,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -10917,13 +10908,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -10935,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -10943,13 +10934,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -10961,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -10969,13 +10960,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10987,7 +10978,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -10995,13 +10986,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11013,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11021,13 +11012,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11039,7 +11030,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11047,13 +11038,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11065,7 +11056,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11073,16 +11064,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="D248" s="9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -11091,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11102,13 +11093,13 @@
         <v>722</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -11117,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11125,14 +11116,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C250" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D250" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="D250" s="9" t="s">
-        <v>727</v>
-      </c>
       <c r="E250">
         <v>1</v>
       </c>
@@ -11143,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11154,10 +11145,10 @@
         <v>730</v>
       </c>
       <c r="C251" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -11177,78 +11168,78 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C252" t="s">
+        <v>738</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="16">
         <v>252</v>
       </c>
-      <c r="B253" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="C253" t="s">
-        <v>741</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-      <c r="I253" s="9" t="s">
-        <v>736</v>
+      <c r="B253" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="C253" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="D253" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="E253" s="25">
+        <v>0</v>
+      </c>
+      <c r="F253" s="25">
+        <v>0</v>
+      </c>
+      <c r="G253" s="25">
+        <v>0</v>
+      </c>
+      <c r="H253" s="25"/>
+      <c r="I253" s="24" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="16">
         <v>253</v>
       </c>
-      <c r="B254" s="24" t="s">
-        <v>951</v>
-      </c>
-      <c r="C254" s="25" t="s">
+      <c r="B254" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="D254" s="24" t="s">
-        <v>952</v>
-      </c>
-      <c r="E254" s="25">
-        <v>0</v>
-      </c>
-      <c r="F254" s="25">
-        <v>0</v>
-      </c>
-      <c r="G254" s="25">
-        <v>0</v>
-      </c>
-      <c r="H254" s="25"/>
-      <c r="I254" s="24" t="s">
-        <v>737</v>
+      <c r="C254" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11256,13 +11247,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -11274,50 +11265,51 @@
         <v>1</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="16.5">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A256" s="16">
         <v>255</v>
       </c>
-      <c r="B256" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="C256" s="9" t="s">
+      <c r="B256" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="C256" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="D256" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5">
+      <c r="E256" s="17">
+        <v>1</v>
+      </c>
+      <c r="F256" s="17">
+        <v>1</v>
+      </c>
+      <c r="G256" s="17">
+        <v>1</v>
+      </c>
+      <c r="H256" s="17"/>
+      <c r="I256" s="15" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A257" s="16">
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="C257" s="15" t="s">
         <v>751</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>914</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>752</v>
       </c>
       <c r="E257" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257" s="17">
         <v>1</v>
@@ -11325,9 +11317,8 @@
       <c r="G257" s="17">
         <v>1</v>
       </c>
-      <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>913</v>
+        <v>750</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11335,14 +11326,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="C258" s="15" t="s">
-        <v>754</v>
-      </c>
-      <c r="D258" s="15" t="s">
-        <v>755</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11353,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11370,7 +11361,7 @@
         <v>759</v>
       </c>
       <c r="E259" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" s="17">
         <v>1</v>
@@ -11379,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11387,16 +11378,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E260" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260" s="17">
         <v>1</v>
@@ -11405,32 +11396,32 @@
         <v>1</v>
       </c>
       <c r="I260" s="15" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="16">
         <v>260</v>
       </c>
-      <c r="B261" s="15" t="s">
-        <v>764</v>
-      </c>
-      <c r="C261" s="15" t="s">
+      <c r="B261" t="s">
         <v>765</v>
       </c>
-      <c r="D261" s="15" t="s">
+      <c r="C261" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D261" t="s">
         <v>766</v>
       </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>767</v>
       </c>
     </row>
@@ -11438,16 +11429,16 @@
       <c r="A262" s="16">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
-        <v>768</v>
+      <c r="B262" s="15" t="s">
+        <v>769</v>
       </c>
       <c r="C262" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D262" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="D262" t="s">
-        <v>769</v>
-      </c>
-      <c r="E262" s="5">
+      <c r="E262">
         <v>1</v>
       </c>
       <c r="F262">
@@ -11457,33 +11448,33 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="16.5">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A263" s="16">
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="C263" s="15" t="s">
         <v>773</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-      <c r="I263" s="12" t="s">
-        <v>644</v>
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11491,25 +11482,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E264" s="17">
         <v>0</v>
       </c>
       <c r="F264" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G264" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>778</v>
+        <v>641</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11529,13 +11520,13 @@
         <v>0</v>
       </c>
       <c r="F265" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265" s="17">
-        <v>1</v>
-      </c>
-      <c r="I265" s="15" t="s">
-        <v>644</v>
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11543,12 +11534,12 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>783</v>
-      </c>
-      <c r="D266" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>784</v>
       </c>
       <c r="E266" s="17">
@@ -11560,8 +11551,8 @@
       <c r="G266" s="17">
         <v>0</v>
       </c>
-      <c r="I266" s="17" t="s">
-        <v>785</v>
+      <c r="I266" s="19" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11569,14 +11560,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C267" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="D267" s="18" t="s">
-        <v>787</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11587,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>789</v>
+        <v>732</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11595,25 +11586,25 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C268" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="D268" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="D268" s="18" t="s">
-        <v>791</v>
-      </c>
       <c r="E268" s="17">
         <v>0</v>
       </c>
       <c r="F268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" s="19" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11621,25 +11612,25 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
       </c>
       <c r="F269" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" s="19" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11647,25 +11638,25 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="18" t="s">
         <v>798</v>
       </c>
-      <c r="D270" s="18" t="s">
-        <v>802</v>
-      </c>
       <c r="E270" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" s="19" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11673,10 +11664,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D271" s="18" t="s">
         <v>801</v>
@@ -11691,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="19" t="s">
-        <v>735</v>
+        <v>803</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11699,13 +11690,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>805</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E272" s="17">
         <v>1</v>
@@ -11717,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="19" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11725,10 +11716,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D273" s="18" t="s">
         <v>809</v>
@@ -11743,7 +11734,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="19" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11751,25 +11742,25 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="C274" s="15" t="s">
         <v>811</v>
-      </c>
-      <c r="C274" s="15" t="s">
-        <v>813</v>
       </c>
       <c r="D274" s="18" t="s">
         <v>812</v>
       </c>
       <c r="E274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" s="19" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11777,25 +11768,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>848</v>
+        <v>816</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
       </c>
       <c r="F275" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" s="19" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11806,9 +11797,6 @@
         <v>819</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>818</v>
-      </c>
-      <c r="D276" s="18" t="s">
         <v>820</v>
       </c>
       <c r="E276" s="17">
@@ -11832,45 +11820,48 @@
         <v>822</v>
       </c>
       <c r="C277" s="15" t="s">
+        <v>891</v>
+      </c>
+      <c r="D277" s="18" t="s">
         <v>823</v>
       </c>
       <c r="E277" s="17">
         <v>0</v>
       </c>
       <c r="F277" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G277" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" s="19" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="16">
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="D278" s="18" t="s">
         <v>825</v>
       </c>
-      <c r="C278" s="15" t="s">
-        <v>894</v>
-      </c>
-      <c r="D278" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="E278" s="17">
-        <v>0</v>
-      </c>
-      <c r="F278" s="17">
-        <v>0</v>
-      </c>
-      <c r="G278" s="17">
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>827</v>
+        <v>882</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11878,25 +11869,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="D279" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>828</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11904,9 +11892,12 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C280" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="D280" s="18" t="s">
         <v>829</v>
       </c>
       <c r="E280">
@@ -11919,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11927,13 +11918,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11945,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -11953,118 +11944,118 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="C282" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>838</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="16">
         <v>282</v>
       </c>
-      <c r="B283" s="15" t="s">
-        <v>846</v>
+      <c r="B283" s="20" t="s">
+        <v>839</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>840</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E283">
         <v>0</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283" s="19" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="16.5">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
       <c r="A284" s="16">
         <v>283</v>
       </c>
-      <c r="B284" s="20" t="s">
-        <v>842</v>
-      </c>
-      <c r="C284" s="15" t="s">
-        <v>843</v>
-      </c>
-      <c r="D284" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="19" t="s">
-        <v>845</v>
+      <c r="B284" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="C284" s="29" t="s">
+        <v>851</v>
+      </c>
+      <c r="D284" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="E284" s="29">
+        <v>1</v>
+      </c>
+      <c r="F284" s="29">
+        <v>1</v>
+      </c>
+      <c r="G284" s="29">
+        <v>1</v>
+      </c>
+      <c r="I284" s="29" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
-      <c r="A285" s="26">
+      <c r="A285" s="16">
         <v>284</v>
       </c>
-      <c r="B285" s="28" t="s">
+      <c r="B285" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="D285" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A286" s="16">
+        <v>285</v>
+      </c>
+      <c r="B286" s="29" t="s">
         <v>853</v>
       </c>
-      <c r="C285" s="29" t="s">
+      <c r="C286" s="29" t="s">
         <v>854</v>
       </c>
-      <c r="D285" s="28" t="s">
+      <c r="D286" s="28" t="s">
         <v>855</v>
       </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
-      <c r="A286" s="26">
-        <v>285</v>
-      </c>
-      <c r="B286" s="29" t="s">
-        <v>850</v>
-      </c>
-      <c r="C286" s="29" t="s">
-        <v>849</v>
-      </c>
-      <c r="D286" s="28" t="s">
-        <v>851</v>
-      </c>
       <c r="E286" s="29">
         <v>1</v>
       </c>
@@ -12075,62 +12066,62 @@
         <v>1</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="29" customFormat="1" ht="16.5">
-      <c r="A287" s="26">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="27" customFormat="1" ht="16.5">
+      <c r="A287" s="16">
         <v>286</v>
       </c>
-      <c r="B287" s="29" t="s">
+      <c r="B287" s="27" t="s">
         <v>856</v>
       </c>
-      <c r="C287" s="29" t="s">
+      <c r="C287" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>857</v>
       </c>
-      <c r="D287" s="28" t="s">
-        <v>858</v>
-      </c>
-      <c r="E287" s="29">
-        <v>1</v>
-      </c>
-      <c r="F287" s="29">
-        <v>1</v>
-      </c>
-      <c r="G287" s="29">
-        <v>1</v>
-      </c>
-      <c r="I287" s="29" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="27" customFormat="1" ht="16.5">
-      <c r="A288" s="26">
+      <c r="E287" s="27">
+        <v>0</v>
+      </c>
+      <c r="F287" s="27">
+        <v>1</v>
+      </c>
+      <c r="G287" s="27">
+        <v>1</v>
+      </c>
+      <c r="I287" s="27" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A288" s="16">
         <v>287</v>
       </c>
-      <c r="B288" s="27" t="s">
+      <c r="B288" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="C288" s="27" t="s">
+      <c r="C288" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="D288" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="D288" s="26" t="s">
-        <v>860</v>
-      </c>
-      <c r="E288" s="27">
-        <v>0</v>
-      </c>
-      <c r="F288" s="27">
-        <v>1</v>
-      </c>
-      <c r="G288" s="27">
-        <v>1</v>
-      </c>
-      <c r="I288" s="27" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5">
+      <c r="E288" s="17">
+        <v>0</v>
+      </c>
+      <c r="F288" s="17">
+        <v>0</v>
+      </c>
+      <c r="G288" s="17">
+        <v>0</v>
+      </c>
+      <c r="I288" s="15" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
@@ -12140,46 +12131,46 @@
       <c r="C289" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="D289" s="15" t="s">
+      <c r="D289" s="18" t="s">
         <v>864</v>
       </c>
-      <c r="E289" s="17">
-        <v>0</v>
-      </c>
-      <c r="F289" s="17">
-        <v>0</v>
-      </c>
-      <c r="G289" s="17">
-        <v>0</v>
-      </c>
-      <c r="I289" s="15" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="290" spans="1:36" ht="16.5">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
       <c r="A290" s="16">
         <v>289</v>
       </c>
-      <c r="B290" s="15" t="s">
-        <v>865</v>
-      </c>
-      <c r="C290" s="15" t="s">
+      <c r="B290" s="30" t="s">
         <v>866</v>
       </c>
-      <c r="D290" s="18" t="s">
+      <c r="C290" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="19" t="s">
+      <c r="D290" s="30" t="s">
         <v>868</v>
+      </c>
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12187,51 +12178,51 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="C291" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="D291" s="30" t="s">
+        <v>872</v>
+      </c>
+      <c r="E291" s="30">
+        <v>1</v>
+      </c>
+      <c r="F291" s="30">
+        <v>1</v>
+      </c>
+      <c r="G291" s="30">
+        <v>1</v>
+      </c>
+      <c r="I291" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="C291" s="30" t="s">
-        <v>870</v>
-      </c>
-      <c r="D291" s="30" t="s">
-        <v>871</v>
-      </c>
-      <c r="E291" s="30">
-        <v>1</v>
-      </c>
-      <c r="F291" s="30">
-        <v>1</v>
-      </c>
-      <c r="G291" s="30">
-        <v>1</v>
-      </c>
-      <c r="I291" s="30" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="292" spans="1:36" s="30" customFormat="1" ht="16.5">
+    </row>
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="16">
         <v>291</v>
       </c>
-      <c r="B292" s="30" t="s">
-        <v>873</v>
-      </c>
-      <c r="C292" s="30" t="s">
+      <c r="B292" s="20" t="s">
         <v>874</v>
       </c>
-      <c r="D292" s="30" t="s">
+      <c r="C292" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="E292" s="30">
-        <v>1</v>
-      </c>
-      <c r="F292" s="30">
-        <v>1</v>
-      </c>
-      <c r="G292" s="30">
-        <v>1</v>
-      </c>
-      <c r="I292" s="30" t="s">
-        <v>872</v>
+      <c r="D292" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" s="19" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -12257,47 +12248,48 @@
         <v>1</v>
       </c>
       <c r="I293" s="19" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="16">
         <v>293</v>
       </c>
-      <c r="B294" s="20" t="s">
+      <c r="B294" s="18" t="s">
         <v>880</v>
       </c>
       <c r="C294" s="15" t="s">
+        <v>873</v>
+      </c>
+      <c r="D294" s="18" t="s">
         <v>881</v>
       </c>
-      <c r="D294" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="E294">
-        <v>0</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
+      <c r="E294" s="17">
+        <v>0</v>
+      </c>
+      <c r="F294" s="17">
+        <v>0</v>
+      </c>
+      <c r="G294" s="17">
+        <v>0</v>
+      </c>
+      <c r="H294" s="17"/>
       <c r="I294" s="19" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="295" spans="1:36" ht="16.5">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="295" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A295" s="16">
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12310,21 +12302,48 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>735</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c r="J295" s="17"/>
+      <c r="K295" s="17"/>
+      <c r="L295" s="17"/>
+      <c r="M295" s="17"/>
+      <c r="N295" s="17"/>
+      <c r="O295" s="17"/>
+      <c r="P295" s="17"/>
+      <c r="Q295" s="17"/>
+      <c r="R295" s="17"/>
+      <c r="S295" s="17"/>
+      <c r="T295" s="17"/>
+      <c r="U295" s="17"/>
+      <c r="V295" s="17"/>
+      <c r="W295" s="17"/>
+      <c r="X295" s="17"/>
+      <c r="Y295" s="17"/>
+      <c r="Z295" s="17"/>
+      <c r="AA295" s="17"/>
+      <c r="AB295" s="17"/>
+      <c r="AC295" s="17"/>
+      <c r="AD295" s="17"/>
+      <c r="AE295" s="17"/>
+      <c r="AF295" s="17"/>
+      <c r="AG295" s="17"/>
+      <c r="AH295" s="17"/>
+      <c r="AI295" s="17"/>
+      <c r="AJ295" s="17"/>
     </row>
     <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A296" s="16">
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D296" s="18" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12337,7 +12356,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12372,26 +12391,24 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>892</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>893</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="D297" s="17"/>
       <c r="E297" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F297" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H297" s="17"/>
-      <c r="I297" s="19" t="s">
-        <v>890</v>
+      <c r="I297" s="15" t="s">
+        <v>909</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12426,24 +12443,26 @@
         <v>297</v>
       </c>
       <c r="B298" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="D298" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="C298" s="15" t="s">
-        <v>911</v>
-      </c>
-      <c r="D298" s="17"/>
       <c r="E298" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F298" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G298" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H298" s="17"/>
-      <c r="I298" s="15" t="s">
-        <v>912</v>
+      <c r="I298" s="19" t="s">
+        <v>887</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12473,31 +12492,31 @@
       <c r="AI298" s="17"/>
       <c r="AJ298" s="17"/>
     </row>
-    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5">
+    <row r="299" spans="1:36" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="18" t="s">
+      <c r="B299" s="40" t="s">
         <v>896</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="C299" s="41" t="s">
+        <v>899</v>
+      </c>
+      <c r="D299" s="40" t="s">
         <v>897</v>
       </c>
-      <c r="D299" s="18" t="s">
+      <c r="E299" s="30">
+        <v>1</v>
+      </c>
+      <c r="F299" s="30">
+        <v>1</v>
+      </c>
+      <c r="G299" s="30">
+        <v>1</v>
+      </c>
+      <c r="H299" s="30"/>
+      <c r="I299" s="42" t="s">
         <v>898</v>
-      </c>
-      <c r="E299" s="17">
-        <v>0</v>
-      </c>
-      <c r="F299" s="17">
-        <v>0</v>
-      </c>
-      <c r="G299" s="17">
-        <v>0</v>
-      </c>
-      <c r="H299" s="17"/>
-      <c r="I299" s="19" t="s">
-        <v>890</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12527,31 +12546,31 @@
       <c r="AI299" s="17"/>
       <c r="AJ299" s="17"/>
     </row>
-    <row r="300" spans="1:36" ht="16.5">
+    <row r="300" spans="1:36" s="21" customFormat="1" ht="16.5">
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="40" t="s">
-        <v>899</v>
-      </c>
-      <c r="C300" s="41" t="s">
-        <v>902</v>
-      </c>
-      <c r="D300" s="40" t="s">
-        <v>900</v>
-      </c>
-      <c r="E300" s="30">
-        <v>1</v>
-      </c>
-      <c r="F300" s="30">
-        <v>1</v>
-      </c>
-      <c r="G300" s="30">
-        <v>1</v>
-      </c>
-      <c r="H300" s="30"/>
-      <c r="I300" s="42" t="s">
-        <v>901</v>
+      <c r="B300" s="43" t="s">
+        <v>969</v>
+      </c>
+      <c r="C300" s="44" t="s">
+        <v>924</v>
+      </c>
+      <c r="D300" s="43" t="s">
+        <v>967</v>
+      </c>
+      <c r="E300" s="45">
+        <v>1</v>
+      </c>
+      <c r="F300" s="45">
+        <v>1</v>
+      </c>
+      <c r="G300" s="45">
+        <v>1</v>
+      </c>
+      <c r="H300" s="45"/>
+      <c r="I300" s="44" t="s">
+        <v>922</v>
       </c>
       <c r="J300" s="17"/>
       <c r="K300" s="17"/>
@@ -12581,18 +12600,18 @@
       <c r="AI300" s="17"/>
       <c r="AJ300" s="17"/>
     </row>
-    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5">
+    <row r="301" spans="1:36" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C301" s="44" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D301" s="43" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="E301" s="45">
         <v>1</v>
@@ -12605,48 +12624,21 @@
       </c>
       <c r="H301" s="45"/>
       <c r="I301" s="44" t="s">
-        <v>925</v>
-      </c>
-      <c r="J301" s="17"/>
-      <c r="K301" s="17"/>
-      <c r="L301" s="17"/>
-      <c r="M301" s="17"/>
-      <c r="N301" s="17"/>
-      <c r="O301" s="17"/>
-      <c r="P301" s="17"/>
-      <c r="Q301" s="17"/>
-      <c r="R301" s="17"/>
-      <c r="S301" s="17"/>
-      <c r="T301" s="17"/>
-      <c r="U301" s="17"/>
-      <c r="V301" s="17"/>
-      <c r="W301" s="17"/>
-      <c r="X301" s="17"/>
-      <c r="Y301" s="17"/>
-      <c r="Z301" s="17"/>
-      <c r="AA301" s="17"/>
-      <c r="AB301" s="17"/>
-      <c r="AC301" s="17"/>
-      <c r="AD301" s="17"/>
-      <c r="AE301" s="17"/>
-      <c r="AF301" s="17"/>
-      <c r="AG301" s="17"/>
-      <c r="AH301" s="17"/>
-      <c r="AI301" s="17"/>
-      <c r="AJ301" s="17"/>
-    </row>
-    <row r="302" spans="1:36" ht="16.5">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="302" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>973</v>
-      </c>
-      <c r="C302" s="44" t="s">
-        <v>926</v>
+        <v>950</v>
+      </c>
+      <c r="C302" s="43" t="s">
+        <v>900</v>
       </c>
       <c r="D302" s="43" t="s">
-        <v>969</v>
+        <v>951</v>
       </c>
       <c r="E302" s="45">
         <v>1</v>
@@ -12658,116 +12650,115 @@
         <v>1</v>
       </c>
       <c r="H302" s="45"/>
-      <c r="I302" s="44" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
+      <c r="I302" s="46" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="43" t="s">
-        <v>953</v>
-      </c>
-      <c r="C303" s="43" t="s">
+      <c r="B303" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="C303" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="D303" s="17" t="s">
         <v>903</v>
       </c>
-      <c r="D303" s="43" t="s">
-        <v>954</v>
-      </c>
-      <c r="E303" s="45">
-        <v>1</v>
-      </c>
-      <c r="F303" s="45">
-        <v>1</v>
-      </c>
-      <c r="G303" s="45">
-        <v>1</v>
-      </c>
-      <c r="H303" s="45"/>
-      <c r="I303" s="46" t="s">
-        <v>644</v>
+      <c r="E303" s="17">
+        <v>1</v>
+      </c>
+      <c r="F303" s="17">
+        <v>1</v>
+      </c>
+      <c r="G303" s="17">
+        <v>1</v>
+      </c>
+      <c r="H303" s="17"/>
+      <c r="I303" s="19" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="C304" s="17" t="s">
+      <c r="B304" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="C304" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="D304" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="D304" s="17" t="s">
+      <c r="E304" s="17">
+        <v>1</v>
+      </c>
+      <c r="F304" s="17">
+        <v>1</v>
+      </c>
+      <c r="G304" s="17">
+        <v>1</v>
+      </c>
+      <c r="H304" s="17"/>
+      <c r="I304" s="15" t="s">
         <v>906</v>
-      </c>
-      <c r="E304" s="17">
-        <v>1</v>
-      </c>
-      <c r="F304" s="17">
-        <v>1</v>
-      </c>
-      <c r="G304" s="17">
-        <v>1</v>
-      </c>
-      <c r="H304" s="17"/>
-      <c r="I304" s="19" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="18" t="s">
-        <v>910</v>
-      </c>
-      <c r="C305" s="15" t="s">
-        <v>971</v>
-      </c>
-      <c r="D305" s="18" t="s">
-        <v>908</v>
-      </c>
-      <c r="E305" s="17">
-        <v>1</v>
-      </c>
-      <c r="F305" s="17">
-        <v>1</v>
-      </c>
-      <c r="G305" s="17">
-        <v>1</v>
-      </c>
-      <c r="H305" s="17"/>
-      <c r="I305" s="15" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" ht="16.5">
+      <c r="B305" s="40" t="s">
+        <v>913</v>
+      </c>
+      <c r="C305" s="41" t="s">
+        <v>914</v>
+      </c>
+      <c r="D305" s="40" t="s">
+        <v>915</v>
+      </c>
+      <c r="E305" s="30">
+        <v>1</v>
+      </c>
+      <c r="F305" s="30">
+        <v>1</v>
+      </c>
+      <c r="G305" s="30">
+        <v>1</v>
+      </c>
+      <c r="H305" s="30"/>
+      <c r="I305" s="41" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="40" t="s">
+      <c r="B306" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="C306" s="41" t="s">
+      <c r="C306" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="D306" s="40" t="s">
+      <c r="D306" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="E306" s="30">
-        <v>1</v>
-      </c>
-      <c r="F306" s="30">
-        <v>1</v>
-      </c>
-      <c r="G306" s="30">
-        <v>1</v>
-      </c>
-      <c r="H306" s="30"/>
-      <c r="I306" s="41" t="s">
-        <v>915</v>
+      <c r="E306" s="17">
+        <v>1</v>
+      </c>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
+      <c r="G306" s="17">
+        <v>1</v>
+      </c>
+      <c r="I306" s="15" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12793,21 +12784,21 @@
         <v>1</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E308" s="17">
         <v>1</v>
@@ -12818,15 +12809,12 @@
       <c r="G308" s="17">
         <v>1</v>
       </c>
-      <c r="I308" s="15" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5">
+    </row>
+    <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="18" t="s">
+      <c r="B309" s="39" t="s">
         <v>928</v>
       </c>
       <c r="C309" s="15" t="s">
@@ -12843,6 +12831,9 @@
       </c>
       <c r="G309" s="17">
         <v>1</v>
+      </c>
+      <c r="I309" s="15" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12850,14 +12841,14 @@
         <v>309</v>
       </c>
       <c r="B310" s="39" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>932</v>
-      </c>
-      <c r="D310" s="18" t="s">
         <v>933</v>
       </c>
+      <c r="D310" s="39" t="s">
+        <v>934</v>
+      </c>
       <c r="E310" s="17">
         <v>1</v>
       </c>
@@ -12867,21 +12858,21 @@
       <c r="G310" s="17">
         <v>1</v>
       </c>
-      <c r="I310" s="15" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="I310" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="39" t="s">
+      <c r="B311" s="18" t="s">
         <v>935</v>
       </c>
       <c r="C311" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="D311" s="39" t="s">
+      <c r="D311" s="18" t="s">
         <v>937</v>
       </c>
       <c r="E311" s="17">
@@ -12894,22 +12885,22 @@
         <v>1</v>
       </c>
       <c r="I311" s="19" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="18" t="s">
-        <v>938</v>
+      <c r="B312" s="39" t="s">
+        <v>939</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>939</v>
-      </c>
-      <c r="D312" s="18" t="s">
         <v>940</v>
       </c>
+      <c r="D312" s="39" t="s">
+        <v>941</v>
+      </c>
       <c r="E312" s="17">
         <v>1</v>
       </c>
@@ -12919,34 +12910,33 @@
       <c r="G312" s="17">
         <v>1</v>
       </c>
-      <c r="I312" s="19" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="I312" s="15" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="39" t="s">
+      <c r="B313" s="31" t="s">
+        <v>943</v>
+      </c>
+      <c r="C313" s="32" t="s">
+        <v>944</v>
+      </c>
+      <c r="D313" s="23"/>
+      <c r="E313" s="23">
+        <v>1</v>
+      </c>
+      <c r="F313" s="23">
+        <v>1</v>
+      </c>
+      <c r="G313" s="23">
+        <v>1</v>
+      </c>
+      <c r="H313" s="23"/>
+      <c r="I313" s="32" t="s">
         <v>942</v>
-      </c>
-      <c r="C313" s="15" t="s">
-        <v>943</v>
-      </c>
-      <c r="D313" s="39" t="s">
-        <v>944</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12954,10 +12944,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="31" t="s">
+        <v>945</v>
+      </c>
+      <c r="C314" s="32" t="s">
         <v>946</v>
-      </c>
-      <c r="C314" s="32" t="s">
-        <v>947</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23">
@@ -12971,32 +12961,32 @@
       </c>
       <c r="H314" s="23"/>
       <c r="I314" s="32" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="31" t="s">
-        <v>948</v>
-      </c>
-      <c r="C315" s="32" t="s">
-        <v>949</v>
-      </c>
-      <c r="D315" s="23"/>
-      <c r="E315" s="23">
-        <v>1</v>
-      </c>
-      <c r="F315" s="23">
-        <v>1</v>
-      </c>
-      <c r="G315" s="23">
-        <v>1</v>
-      </c>
-      <c r="H315" s="23"/>
-      <c r="I315" s="32" t="s">
-        <v>950</v>
+      <c r="B315" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="C315" s="37" t="s">
+        <v>953</v>
+      </c>
+      <c r="D315" s="38"/>
+      <c r="E315" s="38">
+        <v>1</v>
+      </c>
+      <c r="F315" s="38">
+        <v>1</v>
+      </c>
+      <c r="G315" s="38">
+        <v>1</v>
+      </c>
+      <c r="H315" s="38"/>
+      <c r="I315" s="37" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="16.5">
@@ -13024,16 +13014,14 @@
         <v>957</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="16.5">
+    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
       <c r="B317" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="C317" s="37" t="s">
-        <v>959</v>
-      </c>
+      <c r="C317" s="38"/>
       <c r="D317" s="38"/>
       <c r="E317" s="38">
         <v>1</v>
@@ -13046,7 +13034,7 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13054,7 +13042,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C318" s="38"/>
       <c r="D318" s="38"/>
@@ -13069,17 +13057,19 @@
       </c>
       <c r="H318" s="38"/>
       <c r="I318" s="37" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
+        <v>962</v>
+      </c>
+      <c r="C319" s="37" t="s">
         <v>963</v>
       </c>
-      <c r="C319" s="38"/>
       <c r="D319" s="38"/>
       <c r="E319" s="38">
         <v>1</v>
@@ -13092,7 +13082,7 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13100,10 +13090,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="36" t="s">
+        <v>964</v>
+      </c>
+      <c r="C320" s="37" t="s">
         <v>965</v>
-      </c>
-      <c r="C320" s="37" t="s">
-        <v>966</v>
       </c>
       <c r="D320" s="38"/>
       <c r="E320" s="38">
@@ -13117,36 +13107,11 @@
       </c>
       <c r="H320" s="38"/>
       <c r="I320" s="37" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" ht="16.5">
-      <c r="A321" s="16">
-        <v>320</v>
-      </c>
-      <c r="B321" s="36" t="s">
-        <v>967</v>
-      </c>
-      <c r="C321" s="37" t="s">
-        <v>968</v>
-      </c>
-      <c r="D321" s="38"/>
-      <c r="E321" s="38">
-        <v>1</v>
-      </c>
-      <c r="F321" s="38">
-        <v>1</v>
-      </c>
-      <c r="G321" s="38">
-        <v>1</v>
-      </c>
-      <c r="H321" s="38"/>
-      <c r="I321" s="37" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H234"/>
+  <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13169,7 +13134,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="981">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3748,10 +3748,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_038_s12lh_drop_ani</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3806,14 +3802,6 @@
   </si>
   <si>
     <t>act_040_ydfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二页签→元旦活动→欢乐庆典</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月11日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4839,13 +4827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ324"/>
+  <dimension ref="A1:AJ323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E325" sqref="E325"/>
+      <selection pane="bottomRight" activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6835,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -11250,13 +11238,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>737</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E253" s="25">
         <v>0</v>
@@ -11332,7 +11320,7 @@
         <v>748</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>749</v>
@@ -11348,7 +11336,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12450,21 +12438,23 @@
         <v>892</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>908</v>
-      </c>
-      <c r="D297" s="17"/>
+        <v>893</v>
+      </c>
+      <c r="D297" s="18" t="s">
+        <v>894</v>
+      </c>
       <c r="E297" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F297" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H297" s="17"/>
-      <c r="I297" s="15" t="s">
-        <v>909</v>
+      <c r="I297" s="19" t="s">
+        <v>887</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12494,31 +12484,31 @@
       <c r="AI297" s="17"/>
       <c r="AJ297" s="17"/>
     </row>
-    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="18" t="s">
-        <v>893</v>
-      </c>
-      <c r="C298" s="15" t="s">
-        <v>894</v>
-      </c>
-      <c r="D298" s="18" t="s">
+      <c r="B298" s="40" t="s">
         <v>895</v>
       </c>
-      <c r="E298" s="17">
-        <v>0</v>
-      </c>
-      <c r="F298" s="17">
-        <v>0</v>
-      </c>
-      <c r="G298" s="17">
-        <v>0</v>
-      </c>
-      <c r="H298" s="17"/>
-      <c r="I298" s="19" t="s">
-        <v>887</v>
+      <c r="C298" s="41" t="s">
+        <v>898</v>
+      </c>
+      <c r="D298" s="40" t="s">
+        <v>896</v>
+      </c>
+      <c r="E298" s="30">
+        <v>1</v>
+      </c>
+      <c r="F298" s="30">
+        <v>1</v>
+      </c>
+      <c r="G298" s="30">
+        <v>1</v>
+      </c>
+      <c r="H298" s="30"/>
+      <c r="I298" s="42" t="s">
+        <v>897</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12548,31 +12538,31 @@
       <c r="AI298" s="17"/>
       <c r="AJ298" s="17"/>
     </row>
-    <row r="299" spans="1:36" ht="16.5">
+    <row r="299" spans="1:36" s="21" customFormat="1" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="40" t="s">
-        <v>896</v>
-      </c>
-      <c r="C299" s="41" t="s">
-        <v>899</v>
-      </c>
-      <c r="D299" s="40" t="s">
-        <v>897</v>
-      </c>
-      <c r="E299" s="30">
-        <v>1</v>
-      </c>
-      <c r="F299" s="30">
-        <v>1</v>
-      </c>
-      <c r="G299" s="30">
-        <v>1</v>
-      </c>
-      <c r="H299" s="30"/>
-      <c r="I299" s="42" t="s">
-        <v>898</v>
+      <c r="B299" s="43" t="s">
+        <v>966</v>
+      </c>
+      <c r="C299" s="44" t="s">
+        <v>921</v>
+      </c>
+      <c r="D299" s="43" t="s">
+        <v>964</v>
+      </c>
+      <c r="E299" s="45">
+        <v>1</v>
+      </c>
+      <c r="F299" s="45">
+        <v>1</v>
+      </c>
+      <c r="G299" s="45">
+        <v>1</v>
+      </c>
+      <c r="H299" s="45"/>
+      <c r="I299" s="44" t="s">
+        <v>919</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12602,18 +12592,18 @@
       <c r="AI299" s="17"/>
       <c r="AJ299" s="17"/>
     </row>
-    <row r="300" spans="1:36" s="21" customFormat="1" ht="16.5">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="16">
         <v>299</v>
       </c>
       <c r="B300" s="43" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C300" s="44" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D300" s="43" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E300" s="45">
         <v>1</v>
@@ -12626,48 +12616,21 @@
       </c>
       <c r="H300" s="45"/>
       <c r="I300" s="44" t="s">
-        <v>922</v>
-      </c>
-      <c r="J300" s="17"/>
-      <c r="K300" s="17"/>
-      <c r="L300" s="17"/>
-      <c r="M300" s="17"/>
-      <c r="N300" s="17"/>
-      <c r="O300" s="17"/>
-      <c r="P300" s="17"/>
-      <c r="Q300" s="17"/>
-      <c r="R300" s="17"/>
-      <c r="S300" s="17"/>
-      <c r="T300" s="17"/>
-      <c r="U300" s="17"/>
-      <c r="V300" s="17"/>
-      <c r="W300" s="17"/>
-      <c r="X300" s="17"/>
-      <c r="Y300" s="17"/>
-      <c r="Z300" s="17"/>
-      <c r="AA300" s="17"/>
-      <c r="AB300" s="17"/>
-      <c r="AC300" s="17"/>
-      <c r="AD300" s="17"/>
-      <c r="AE300" s="17"/>
-      <c r="AF300" s="17"/>
-      <c r="AG300" s="17"/>
-      <c r="AH300" s="17"/>
-      <c r="AI300" s="17"/>
-      <c r="AJ300" s="17"/>
-    </row>
-    <row r="301" spans="1:36" ht="16.5">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>970</v>
-      </c>
-      <c r="C301" s="44" t="s">
-        <v>923</v>
+        <v>947</v>
+      </c>
+      <c r="C301" s="43" t="s">
+        <v>899</v>
       </c>
       <c r="D301" s="43" t="s">
-        <v>966</v>
+        <v>948</v>
       </c>
       <c r="E301" s="45">
         <v>1</v>
@@ -12679,49 +12642,49 @@
         <v>1</v>
       </c>
       <c r="H301" s="45"/>
-      <c r="I301" s="44" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="302" spans="1:36" s="17" customFormat="1" ht="16.5">
+      <c r="I301" s="46" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
-      <c r="B302" s="43" t="s">
-        <v>950</v>
-      </c>
-      <c r="C302" s="43" t="s">
+      <c r="B302" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="D302" s="43" t="s">
-        <v>951</v>
-      </c>
-      <c r="E302" s="45">
-        <v>1</v>
-      </c>
-      <c r="F302" s="45">
-        <v>1</v>
-      </c>
-      <c r="G302" s="45">
-        <v>1</v>
-      </c>
-      <c r="H302" s="45"/>
-      <c r="I302" s="46" t="s">
-        <v>641</v>
+      <c r="C302" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="D302" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="E302" s="17">
+        <v>1</v>
+      </c>
+      <c r="F302" s="17">
+        <v>1</v>
+      </c>
+      <c r="G302" s="17">
+        <v>1</v>
+      </c>
+      <c r="H302" s="17"/>
+      <c r="I302" s="19" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="C303" s="17" t="s">
-        <v>902</v>
-      </c>
-      <c r="D303" s="17" t="s">
-        <v>903</v>
+      <c r="B303" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="C303" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>904</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12733,62 +12696,61 @@
         <v>1</v>
       </c>
       <c r="H303" s="17"/>
-      <c r="I303" s="19" t="s">
-        <v>904</v>
+      <c r="I303" s="15" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="18" t="s">
-        <v>907</v>
-      </c>
-      <c r="C304" s="15" t="s">
-        <v>968</v>
-      </c>
-      <c r="D304" s="18" t="s">
-        <v>905</v>
-      </c>
-      <c r="E304" s="17">
-        <v>1</v>
-      </c>
-      <c r="F304" s="17">
-        <v>1</v>
-      </c>
-      <c r="G304" s="17">
-        <v>1</v>
-      </c>
-      <c r="H304" s="17"/>
-      <c r="I304" s="15" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="16.5">
+      <c r="B304" s="40" t="s">
+        <v>910</v>
+      </c>
+      <c r="C304" s="41" t="s">
+        <v>911</v>
+      </c>
+      <c r="D304" s="40" t="s">
+        <v>912</v>
+      </c>
+      <c r="E304" s="30">
+        <v>1</v>
+      </c>
+      <c r="F304" s="30">
+        <v>1</v>
+      </c>
+      <c r="G304" s="30">
+        <v>1</v>
+      </c>
+      <c r="H304" s="30"/>
+      <c r="I304" s="41" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="40" t="s">
+      <c r="B305" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="C305" s="41" t="s">
+      <c r="C305" s="15" t="s">
         <v>914</v>
       </c>
-      <c r="D305" s="40" t="s">
+      <c r="D305" s="18" t="s">
         <v>915</v>
       </c>
-      <c r="E305" s="30">
-        <v>1</v>
-      </c>
-      <c r="F305" s="30">
-        <v>1</v>
-      </c>
-      <c r="G305" s="30">
-        <v>1</v>
-      </c>
-      <c r="H305" s="30"/>
-      <c r="I305" s="41" t="s">
-        <v>912</v>
+      <c r="E305" s="17">
+        <v>1</v>
+      </c>
+      <c r="F305" s="17">
+        <v>1</v>
+      </c>
+      <c r="G305" s="17">
+        <v>1</v>
+      </c>
+      <c r="I305" s="15" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12814,21 +12776,21 @@
         <v>1</v>
       </c>
       <c r="I306" s="15" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C307" s="15" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -12839,15 +12801,12 @@
       <c r="G307" s="17">
         <v>1</v>
       </c>
-      <c r="I307" s="15" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5">
+    </row>
+    <row r="308" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="18" t="s">
+      <c r="B308" s="39" t="s">
         <v>925</v>
       </c>
       <c r="C308" s="15" t="s">
@@ -12864,6 +12823,9 @@
       </c>
       <c r="G308" s="17">
         <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12871,14 +12833,14 @@
         <v>308</v>
       </c>
       <c r="B309" s="39" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>929</v>
-      </c>
-      <c r="D309" s="18" t="s">
         <v>930</v>
       </c>
+      <c r="D309" s="39" t="s">
+        <v>931</v>
+      </c>
       <c r="E309" s="17">
         <v>1</v>
       </c>
@@ -12888,21 +12850,21 @@
       <c r="G309" s="17">
         <v>1</v>
       </c>
-      <c r="I309" s="15" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="I309" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="39" t="s">
+      <c r="B310" s="18" t="s">
         <v>932</v>
       </c>
       <c r="C310" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="D310" s="39" t="s">
+      <c r="D310" s="18" t="s">
         <v>934</v>
       </c>
       <c r="E310" s="17">
@@ -12915,22 +12877,22 @@
         <v>1</v>
       </c>
       <c r="I310" s="19" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="18" t="s">
-        <v>935</v>
+      <c r="B311" s="39" t="s">
+        <v>936</v>
       </c>
       <c r="C311" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="D311" s="18" t="s">
         <v>937</v>
       </c>
+      <c r="D311" s="39" t="s">
+        <v>938</v>
+      </c>
       <c r="E311" s="17">
         <v>1</v>
       </c>
@@ -12940,34 +12902,33 @@
       <c r="G311" s="17">
         <v>1</v>
       </c>
-      <c r="I311" s="19" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="I311" s="15" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="39" t="s">
+      <c r="B312" s="31" t="s">
+        <v>940</v>
+      </c>
+      <c r="C312" s="32" t="s">
+        <v>941</v>
+      </c>
+      <c r="D312" s="23"/>
+      <c r="E312" s="23">
+        <v>1</v>
+      </c>
+      <c r="F312" s="23">
+        <v>1</v>
+      </c>
+      <c r="G312" s="23">
+        <v>1</v>
+      </c>
+      <c r="H312" s="23"/>
+      <c r="I312" s="32" t="s">
         <v>939</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>940</v>
-      </c>
-      <c r="D312" s="39" t="s">
-        <v>941</v>
-      </c>
-      <c r="E312" s="17">
-        <v>1</v>
-      </c>
-      <c r="F312" s="17">
-        <v>1</v>
-      </c>
-      <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="I312" s="15" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
@@ -12975,10 +12936,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="31" t="s">
+        <v>942</v>
+      </c>
+      <c r="C313" s="32" t="s">
         <v>943</v>
-      </c>
-      <c r="C313" s="32" t="s">
-        <v>944</v>
       </c>
       <c r="D313" s="23"/>
       <c r="E313" s="23">
@@ -12992,32 +12953,32 @@
       </c>
       <c r="H313" s="23"/>
       <c r="I313" s="32" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="31" t="s">
-        <v>945</v>
-      </c>
-      <c r="C314" s="32" t="s">
-        <v>946</v>
-      </c>
-      <c r="D314" s="23"/>
-      <c r="E314" s="23">
-        <v>1</v>
-      </c>
-      <c r="F314" s="23">
-        <v>1</v>
-      </c>
-      <c r="G314" s="23">
-        <v>1</v>
-      </c>
-      <c r="H314" s="23"/>
-      <c r="I314" s="32" t="s">
-        <v>947</v>
+      <c r="B314" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="C314" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="D314" s="38"/>
+      <c r="E314" s="38">
+        <v>1</v>
+      </c>
+      <c r="F314" s="38">
+        <v>1</v>
+      </c>
+      <c r="G314" s="38">
+        <v>1</v>
+      </c>
+      <c r="H314" s="38"/>
+      <c r="I314" s="37" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -13045,16 +13006,14 @@
         <v>954</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="16.5">
+    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
         <v>955</v>
       </c>
-      <c r="C316" s="37" t="s">
-        <v>956</v>
-      </c>
+      <c r="C316" s="38"/>
       <c r="D316" s="38"/>
       <c r="E316" s="38">
         <v>1</v>
@@ -13067,7 +13026,7 @@
       </c>
       <c r="H316" s="38"/>
       <c r="I316" s="37" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13075,7 +13034,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="36" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C317" s="38"/>
       <c r="D317" s="38"/>
@@ -13090,17 +13049,19 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
+        <v>959</v>
+      </c>
+      <c r="C318" s="37" t="s">
         <v>960</v>
       </c>
-      <c r="C318" s="38"/>
       <c r="D318" s="38"/>
       <c r="E318" s="38">
         <v>1</v>
@@ -13113,7 +13074,7 @@
       </c>
       <c r="H318" s="38"/>
       <c r="I318" s="37" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -13121,10 +13082,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C319" s="37" t="s">
         <v>962</v>
-      </c>
-      <c r="C319" s="37" t="s">
-        <v>963</v>
       </c>
       <c r="D319" s="38"/>
       <c r="E319" s="38">
@@ -13138,32 +13099,34 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="36" t="s">
-        <v>964</v>
-      </c>
-      <c r="C320" s="37" t="s">
-        <v>965</v>
-      </c>
-      <c r="D320" s="38"/>
-      <c r="E320" s="38">
-        <v>1</v>
-      </c>
-      <c r="F320" s="38">
-        <v>1</v>
-      </c>
-      <c r="G320" s="38">
-        <v>1</v>
-      </c>
-      <c r="H320" s="38"/>
-      <c r="I320" s="37" t="s">
-        <v>957</v>
+      <c r="B320" s="50" t="s">
+        <v>969</v>
+      </c>
+      <c r="C320" s="51" t="s">
+        <v>970</v>
+      </c>
+      <c r="D320" s="50" t="s">
+        <v>971</v>
+      </c>
+      <c r="E320" s="2">
+        <v>1</v>
+      </c>
+      <c r="F320" s="2">
+        <v>1</v>
+      </c>
+      <c r="G320" s="2">
+        <v>1</v>
+      </c>
+      <c r="H320" s="2"/>
+      <c r="I320" s="51" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13171,13 +13134,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="50" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C321" s="51" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D321" s="50" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E321" s="2">
         <v>1</v>
@@ -13190,7 +13153,7 @@
       </c>
       <c r="H321" s="2"/>
       <c r="I321" s="51" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
@@ -13203,9 +13166,7 @@
       <c r="C322" s="51" t="s">
         <v>977</v>
       </c>
-      <c r="D322" s="50" t="s">
-        <v>978</v>
-      </c>
+      <c r="D322" s="2"/>
       <c r="E322" s="2">
         <v>1</v>
       </c>
@@ -13217,19 +13178,17 @@
       </c>
       <c r="H322" s="2"/>
       <c r="I322" s="51" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" ht="16.5">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="50" t="s">
+      <c r="B323" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="C323" s="51" t="s">
-        <v>980</v>
-      </c>
+      <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2">
         <v>1</v>
@@ -13241,31 +13200,8 @@
         <v>1</v>
       </c>
       <c r="H323" s="2"/>
-      <c r="I323" s="51" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A324" s="16">
-        <v>323</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2">
-        <v>1</v>
-      </c>
-      <c r="F324" s="2">
-        <v>1</v>
-      </c>
-      <c r="G324" s="2">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2"/>
-      <c r="I324" s="52" t="s">
-        <v>983</v>
+      <c r="I323" s="52" t="s">
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -4830,10 +4830,10 @@
   <dimension ref="A1:AJ323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C280" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C253" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A292" sqref="A292"/>
+      <selection pane="bottomRight" activeCell="E263" sqref="E263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11625,29 +11625,29 @@
         <v>732</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A268" s="16">
+    <row r="268" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A268" s="7">
         <v>267</v>
       </c>
-      <c r="B268" s="15" t="s">
+      <c r="B268" s="51" t="s">
         <v>793</v>
       </c>
-      <c r="C268" s="15" t="s">
+      <c r="C268" s="51" t="s">
         <v>791</v>
       </c>
-      <c r="D268" s="18" t="s">
+      <c r="D268" s="50" t="s">
         <v>792</v>
       </c>
-      <c r="E268" s="17">
-        <v>0</v>
-      </c>
-      <c r="F268" s="17">
-        <v>1</v>
-      </c>
-      <c r="G268" s="17">
-        <v>1</v>
-      </c>
-      <c r="I268" s="19" t="s">
+      <c r="E268" s="2">
+        <v>1</v>
+      </c>
+      <c r="F268" s="2">
+        <v>1</v>
+      </c>
+      <c r="G268" s="2">
+        <v>1</v>
+      </c>
+      <c r="I268" s="52" t="s">
         <v>732</v>
       </c>
     </row>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1016">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -5066,10 +5066,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C338" sqref="C338"/>
+      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11927,13 +11927,13 @@
         <v>798</v>
       </c>
       <c r="E270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" s="19" t="s">
         <v>732</v>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="998">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4014,14 +4014,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_001_ygbd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2月</t>
     </r>
@@ -4050,7 +4042,187 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_002_bzphb</t>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_045_xxlbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_045_XXLBDManger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_universal_dh</t>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_UNIVERSAL_DHManager</t>
+  </si>
+  <si>
+    <t>act_ty_universal_dh_style/act_001_universal</t>
+  </si>
+  <si>
+    <t>万能字资源皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_048_xnsmt</t>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+  </si>
+  <si>
+    <t>Act_048_XNSMTManager</t>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9号关闭</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_005_fudai</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4063,6 +4235,10 @@
   </si>
   <si>
     <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳掉落皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4094,11 +4270,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
+    <t>爆竹掉落皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4106,10 +4278,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>太阳换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_hhl_style/act_002_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4118,160 +4286,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_045_xxlbd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>过大年--消消乐争霸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_045_XXLBDManger</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_universal_dh</t>
-  </si>
-  <si>
-    <t>万能字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_Ty_UNIVERSAL_DHManager</t>
-  </si>
-  <si>
-    <t>act_ty_universal_dh_style/act_001_universal</t>
-  </si>
-  <si>
-    <t>万能字资源皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
+    <t>活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_048_xnsmt</t>
-  </si>
-  <si>
-    <t>新年送茅台</t>
-  </si>
-  <si>
-    <t>Act_048_XNSMTManager</t>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9号关闭</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_005_fudai</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小汤圆boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4474,7 +4493,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4633,6 +4652,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4911,13 +4939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ327"/>
+  <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B329" sqref="B329"/>
+      <selection pane="bottomRight" activeCell="E332" sqref="E332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6907,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -11862,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="I273" s="15" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12627,13 +12655,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="43" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="C299" s="44" t="s">
         <v>920</v>
       </c>
       <c r="D299" s="43" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="E299" s="45">
         <v>1</v>
@@ -12681,13 +12709,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="43" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="C300" s="44" t="s">
         <v>919</v>
       </c>
       <c r="D300" s="43" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="E300" s="45">
         <v>1</v>
@@ -12765,7 +12793,7 @@
         <v>905</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="D303" s="18" t="s">
         <v>903</v>
@@ -13045,10 +13073,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="36" t="s">
-        <v>948</v>
+        <v>983</v>
       </c>
       <c r="C314" s="37" t="s">
-        <v>949</v>
+        <v>985</v>
       </c>
       <c r="D314" s="38"/>
       <c r="E314" s="38">
@@ -13062,7 +13090,7 @@
       </c>
       <c r="H314" s="38"/>
       <c r="I314" s="37" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -13070,10 +13098,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="36" t="s">
-        <v>951</v>
+        <v>986</v>
       </c>
       <c r="C315" s="37" t="s">
-        <v>952</v>
+        <v>987</v>
       </c>
       <c r="D315" s="38"/>
       <c r="E315" s="38">
@@ -13087,7 +13115,7 @@
       </c>
       <c r="H315" s="38"/>
       <c r="I315" s="37" t="s">
-        <v>953</v>
+        <v>988</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13095,9 +13123,11 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
-        <v>954</v>
-      </c>
-      <c r="C316" s="38"/>
+        <v>989</v>
+      </c>
+      <c r="C316" s="38" t="s">
+        <v>990</v>
+      </c>
       <c r="D316" s="38"/>
       <c r="E316" s="38">
         <v>1</v>
@@ -13110,7 +13140,7 @@
       </c>
       <c r="H316" s="38"/>
       <c r="I316" s="37" t="s">
-        <v>955</v>
+        <v>991</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13118,9 +13148,11 @@
         <v>316</v>
       </c>
       <c r="B317" s="36" t="s">
-        <v>956</v>
-      </c>
-      <c r="C317" s="38"/>
+        <v>949</v>
+      </c>
+      <c r="C317" s="37" t="s">
+        <v>992</v>
+      </c>
       <c r="D317" s="38"/>
       <c r="E317" s="38">
         <v>1</v>
@@ -13133,7 +13165,7 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>953</v>
+        <v>988</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
@@ -13141,10 +13173,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
-        <v>958</v>
+        <v>993</v>
       </c>
       <c r="C318" s="37" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="D318" s="38"/>
       <c r="E318" s="38">
@@ -13158,7 +13190,7 @@
       </c>
       <c r="H318" s="38"/>
       <c r="I318" s="37" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -13166,10 +13198,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
-        <v>960</v>
+        <v>994</v>
       </c>
       <c r="C319" s="37" t="s">
-        <v>961</v>
+        <v>995</v>
       </c>
       <c r="D319" s="38"/>
       <c r="E319" s="38">
@@ -13183,34 +13215,32 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>953</v>
+        <v>988</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="50" t="s">
-        <v>968</v>
-      </c>
-      <c r="C320" s="51" t="s">
-        <v>969</v>
-      </c>
-      <c r="D320" s="50" t="s">
-        <v>970</v>
-      </c>
-      <c r="E320" s="2">
-        <v>1</v>
-      </c>
-      <c r="F320" s="2">
-        <v>1</v>
-      </c>
-      <c r="G320" s="2">
-        <v>1</v>
-      </c>
-      <c r="H320" s="2"/>
-      <c r="I320" s="51" t="s">
-        <v>971</v>
+      <c r="B320" s="53" t="s">
+        <v>984</v>
+      </c>
+      <c r="C320" s="37" t="s">
+        <v>996</v>
+      </c>
+      <c r="D320" s="38"/>
+      <c r="E320" s="38">
+        <v>1</v>
+      </c>
+      <c r="F320" s="38">
+        <v>1</v>
+      </c>
+      <c r="G320" s="38">
+        <v>1</v>
+      </c>
+      <c r="H320" s="38"/>
+      <c r="I320" s="54" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13218,13 +13248,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="50" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="C321" s="51" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="D321" s="50" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="E321" s="2">
         <v>1</v>
@@ -13237,7 +13267,7 @@
       </c>
       <c r="H321" s="2"/>
       <c r="I321" s="51" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
@@ -13245,12 +13275,14 @@
         <v>321</v>
       </c>
       <c r="B322" s="50" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="C322" s="51" t="s">
-        <v>976</v>
-      </c>
-      <c r="D322" s="2"/>
+        <v>963</v>
+      </c>
+      <c r="D322" s="50" t="s">
+        <v>964</v>
+      </c>
       <c r="E322" s="2">
         <v>1</v>
       </c>
@@ -13262,17 +13294,19 @@
       </c>
       <c r="H322" s="2"/>
       <c r="I322" s="51" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="C323" s="2"/>
+      <c r="B323" s="50" t="s">
+        <v>965</v>
+      </c>
+      <c r="C323" s="51" t="s">
+        <v>966</v>
+      </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2">
         <v>1</v>
@@ -13284,23 +13318,19 @@
         <v>1</v>
       </c>
       <c r="H323" s="2"/>
-      <c r="I323" s="52" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" ht="16.5">
+      <c r="I323" s="51" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="50" t="s">
-        <v>980</v>
-      </c>
-      <c r="C324" s="50" t="s">
-        <v>981</v>
-      </c>
-      <c r="D324" s="50" t="s">
-        <v>982</v>
-      </c>
+      <c r="B324" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
       <c r="E324" s="2">
         <v>1</v>
       </c>
@@ -13311,8 +13341,8 @@
         <v>1</v>
       </c>
       <c r="H324" s="2"/>
-      <c r="I324" s="51" t="s">
-        <v>983</v>
+      <c r="I324" s="52" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="16.5">
@@ -13320,12 +13350,14 @@
         <v>324</v>
       </c>
       <c r="B325" s="50" t="s">
-        <v>985</v>
-      </c>
-      <c r="C325" s="52" t="s">
-        <v>986</v>
-      </c>
-      <c r="D325" s="2"/>
+        <v>970</v>
+      </c>
+      <c r="C325" s="50" t="s">
+        <v>971</v>
+      </c>
+      <c r="D325" s="50" t="s">
+        <v>972</v>
+      </c>
       <c r="E325" s="2">
         <v>1</v>
       </c>
@@ -13337,7 +13369,7 @@
       </c>
       <c r="H325" s="2"/>
       <c r="I325" s="51" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="16.5">
@@ -13345,10 +13377,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="50" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="C326" s="52" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2">
@@ -13362,7 +13394,7 @@
       </c>
       <c r="H326" s="2"/>
       <c r="I326" s="51" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="16.5">
@@ -13370,10 +13402,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="50" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="C327" s="52" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2">
@@ -13387,8 +13419,54 @@
       </c>
       <c r="H327" s="2"/>
       <c r="I327" s="51" t="s">
-        <v>992</v>
-      </c>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="16.5">
+      <c r="A328" s="16">
+        <v>327</v>
+      </c>
+      <c r="B328" s="50" t="s">
+        <v>980</v>
+      </c>
+      <c r="C328" s="52" t="s">
+        <v>981</v>
+      </c>
+      <c r="D328" s="2"/>
+      <c r="E328" s="2">
+        <v>1</v>
+      </c>
+      <c r="F328" s="2">
+        <v>1</v>
+      </c>
+      <c r="G328" s="2">
+        <v>1</v>
+      </c>
+      <c r="H328" s="2"/>
+      <c r="I328" s="51" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
+      <c r="B331" s="18"/>
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
+      <c r="B332" s="18"/>
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
+      <c r="B333" s="18"/>
+    </row>
+    <row r="334" spans="1:9" ht="16.5">
+      <c r="B334" s="18"/>
+    </row>
+    <row r="335" spans="1:9" ht="16.5">
+      <c r="B335" s="18"/>
+    </row>
+    <row r="336" spans="1:9" ht="16.5">
+      <c r="B336" s="18"/>
+    </row>
+    <row r="337" spans="2:2" ht="16.5">
+      <c r="B337" s="55"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="999">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4291,6 +4291,10 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月30日</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4493,7 +4497,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4661,6 +4665,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4942,10 +4949,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E332" sqref="E332"/>
+      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8030,30 +8037,30 @@
         <v>644</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16.5">
-      <c r="A119" s="16">
+    <row r="119" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="E119" s="5">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>644</v>
+      <c r="E119" s="7">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2">
+        <v>1</v>
+      </c>
+      <c r="I119" s="56" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1003">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4292,6 +4292,20 @@
   <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_prize_quiz</t>
+  </si>
+  <si>
+    <t>有奖问答</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_PrizeQuizManager</t>
   </si>
   <si>
     <t>2月30日</t>
@@ -4398,7 +4412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4465,6 +4479,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4497,7 +4517,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4668,6 +4688,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4949,10 +4981,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D317" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
+      <selection pane="bottomRight" activeCell="D339" sqref="D339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13454,6 +13486,33 @@
         <v>982</v>
       </c>
     </row>
+    <row r="329" spans="1:9" ht="16.5">
+      <c r="A329" s="16">
+        <v>328</v>
+      </c>
+      <c r="B329" s="57" t="s">
+        <v>999</v>
+      </c>
+      <c r="C329" s="58" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D329" s="57" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E329" s="59">
+        <v>1</v>
+      </c>
+      <c r="F329" s="59">
+        <v>1</v>
+      </c>
+      <c r="G329" s="59">
+        <v>1</v>
+      </c>
+      <c r="H329" s="59"/>
+      <c r="I329" s="60" t="s">
+        <v>1002</v>
+      </c>
+    </row>
     <row r="331" spans="1:9" ht="16.5">
       <c r="B331" s="18"/>
     </row>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1016">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4343,7 +4343,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>金元宝榜单</t>
+    <t>act_ty_sjb_style/act_004_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_003_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>集字榜单</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4364,19 +4380,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_004_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_003_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵换好礼</t>
+    <t>金元宝排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_005_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5058,16 +5066,16 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C273" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C294" sqref="C294"/>
+      <selection pane="bottomRight" activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -13625,7 +13633,7 @@
         <v>1007</v>
       </c>
       <c r="C331" s="51" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2">
@@ -13639,7 +13647,7 @@
       </c>
       <c r="H331" s="2"/>
       <c r="I331" s="51" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="16.5">
@@ -13647,10 +13655,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="50" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C332" s="51" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2">
@@ -13664,7 +13672,7 @@
       </c>
       <c r="H332" s="2"/>
       <c r="I332" s="51" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="16.5">
@@ -13672,10 +13680,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="50" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C333" s="51" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2">
@@ -13689,11 +13697,33 @@
       </c>
       <c r="H333" s="2"/>
       <c r="I333" s="51" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="16.5">
-      <c r="B334" s="18"/>
+      <c r="A334" s="16">
+        <v>333</v>
+      </c>
+      <c r="B334" s="50" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C334" s="51" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2">
+        <v>1</v>
+      </c>
+      <c r="F334" s="2">
+        <v>1</v>
+      </c>
+      <c r="G334" s="2">
+        <v>1</v>
+      </c>
+      <c r="H334" s="2"/>
+      <c r="I334" s="51" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="335" spans="1:9" ht="16.5">
       <c r="B335" s="18"/>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1014">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4078,18 +4078,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_045_xxlbd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>过大年--消消乐争霸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_045_XXLBDManger</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>2月15日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4097,32 +4085,12 @@
     <t>act_ty_universal_dh</t>
   </si>
   <si>
-    <t>万能字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_Ty_UNIVERSAL_DHManager</t>
   </si>
   <si>
     <t>act_ty_universal_dh_style/act_001_universal</t>
   </si>
   <si>
-    <t>万能字资源皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_048_xnsmt</t>
   </si>
   <si>
@@ -4130,10 +4098,6 @@
   </si>
   <si>
     <t>Act_048_XNSMTManager</t>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4153,61 +4117,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_005_fudai</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小汤圆boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4301,14 +4211,172 @@
     <t>act_ty_prize_quiz</t>
   </si>
   <si>
+    <t>Act_Ty_PrizeQuizManager</t>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_045_xxlbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_045_XXLBDManger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字资源皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_005_fudai</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHL</t>
+  </si>
+  <si>
+    <t>新游福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHLManager</t>
+  </si>
+  <si>
     <t>有奖问答</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_Ty_PrizeQuizManager</t>
-  </si>
-  <si>
-    <t>2月30日</t>
+    <t>act_ty_sjb_style/act_003_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_004_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_003_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵换好礼</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4316,7 +4384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4410,6 +4478,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -4517,7 +4591,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4699,6 +4773,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4981,10 +5058,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D317" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D339" sqref="D339"/>
+      <selection pane="bottomRight" activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8092,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="56" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -11929,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="I273" s="15" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13112,10 +13189,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="36" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="C314" s="37" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="D314" s="38"/>
       <c r="E314" s="38">
@@ -13137,10 +13214,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="36" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="C315" s="37" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="D315" s="38"/>
       <c r="E315" s="38">
@@ -13154,7 +13231,7 @@
       </c>
       <c r="H315" s="38"/>
       <c r="I315" s="37" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13162,10 +13239,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="C316" s="38" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="D316" s="38"/>
       <c r="E316" s="38">
@@ -13179,7 +13256,7 @@
       </c>
       <c r="H316" s="38"/>
       <c r="I316" s="37" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13190,7 +13267,7 @@
         <v>949</v>
       </c>
       <c r="C317" s="37" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="D317" s="38"/>
       <c r="E317" s="38">
@@ -13204,7 +13281,7 @@
       </c>
       <c r="H317" s="38"/>
       <c r="I317" s="37" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
@@ -13212,7 +13289,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="36" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="C318" s="37" t="s">
         <v>951</v>
@@ -13237,10 +13314,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="36" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
       <c r="C319" s="37" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
       <c r="D319" s="38"/>
       <c r="E319" s="38">
@@ -13254,7 +13331,7 @@
       </c>
       <c r="H319" s="38"/>
       <c r="I319" s="37" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13262,10 +13339,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="53" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="C320" s="37" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="D320" s="38"/>
       <c r="E320" s="38">
@@ -13279,7 +13356,7 @@
       </c>
       <c r="H320" s="38"/>
       <c r="I320" s="54" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13287,13 +13364,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="50" t="s">
-        <v>958</v>
+        <v>986</v>
       </c>
       <c r="C321" s="51" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="D321" s="50" t="s">
-        <v>960</v>
+        <v>988</v>
       </c>
       <c r="E321" s="2">
         <v>1</v>
@@ -13306,7 +13383,7 @@
       </c>
       <c r="H321" s="2"/>
       <c r="I321" s="51" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
@@ -13314,13 +13391,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="50" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C322" s="51" t="s">
-        <v>963</v>
+        <v>989</v>
       </c>
       <c r="D322" s="50" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E322" s="2">
         <v>1</v>
@@ -13333,7 +13410,7 @@
       </c>
       <c r="H322" s="2"/>
       <c r="I322" s="51" t="s">
-        <v>961</v>
+        <v>990</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
@@ -13341,10 +13418,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="50" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C323" s="51" t="s">
-        <v>966</v>
+        <v>991</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2">
@@ -13358,15 +13435,15 @@
       </c>
       <c r="H323" s="2"/>
       <c r="I323" s="51" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="2" t="s">
-        <v>968</v>
+      <c r="B324" s="61" t="s">
+        <v>992</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -13381,7 +13458,7 @@
       </c>
       <c r="H324" s="2"/>
       <c r="I324" s="52" t="s">
-        <v>969</v>
+        <v>993</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="16.5">
@@ -13389,13 +13466,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="50" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C325" s="50" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="D325" s="50" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="E325" s="2">
         <v>1</v>
@@ -13408,7 +13485,7 @@
       </c>
       <c r="H325" s="2"/>
       <c r="I325" s="51" t="s">
-        <v>973</v>
+        <v>994</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="16.5">
@@ -13416,10 +13493,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="50" t="s">
-        <v>975</v>
+        <v>995</v>
       </c>
       <c r="C326" s="52" t="s">
-        <v>976</v>
+        <v>996</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2">
@@ -13433,7 +13510,7 @@
       </c>
       <c r="H326" s="2"/>
       <c r="I326" s="51" t="s">
-        <v>977</v>
+        <v>997</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="16.5">
@@ -13441,10 +13518,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="50" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="C327" s="52" t="s">
-        <v>979</v>
+        <v>998</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2">
@@ -13458,7 +13535,7 @@
       </c>
       <c r="H327" s="2"/>
       <c r="I327" s="51" t="s">
-        <v>977</v>
+        <v>999</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="16.5">
@@ -13466,10 +13543,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="50" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="C328" s="52" t="s">
-        <v>981</v>
+        <v>1001</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2">
@@ -13483,44 +13560,137 @@
       </c>
       <c r="H328" s="2"/>
       <c r="I328" s="51" t="s">
-        <v>982</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="16">
         <v>328</v>
       </c>
-      <c r="B329" s="57" t="s">
-        <v>999</v>
-      </c>
-      <c r="C329" s="58" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D329" s="57" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E329" s="59">
-        <v>1</v>
-      </c>
-      <c r="F329" s="59">
-        <v>1</v>
-      </c>
-      <c r="G329" s="59">
-        <v>1</v>
-      </c>
-      <c r="H329" s="59"/>
-      <c r="I329" s="60" t="s">
+      <c r="B329" s="50" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C329" s="52" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D329" s="50" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E329" s="2">
+        <v>1</v>
+      </c>
+      <c r="F329" s="2">
+        <v>1</v>
+      </c>
+      <c r="G329" s="2">
+        <v>1</v>
+      </c>
+      <c r="H329" s="2"/>
+      <c r="I329" s="51" t="s">
         <v>1002</v>
       </c>
     </row>
+    <row r="330" spans="1:9" ht="16.5">
+      <c r="A330" s="16">
+        <v>329</v>
+      </c>
+      <c r="B330" s="57" t="s">
+        <v>983</v>
+      </c>
+      <c r="C330" s="58" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D330" s="57" t="s">
+        <v>984</v>
+      </c>
+      <c r="E330" s="59">
+        <v>1</v>
+      </c>
+      <c r="F330" s="59">
+        <v>1</v>
+      </c>
+      <c r="G330" s="59">
+        <v>1</v>
+      </c>
+      <c r="H330" s="59"/>
+      <c r="I330" s="60" t="s">
+        <v>985</v>
+      </c>
+    </row>
     <row r="331" spans="1:9" ht="16.5">
-      <c r="B331" s="18"/>
+      <c r="A331" s="16">
+        <v>330</v>
+      </c>
+      <c r="B331" s="50" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C331" s="51" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D331" s="2"/>
+      <c r="E331" s="2">
+        <v>1</v>
+      </c>
+      <c r="F331" s="2">
+        <v>1</v>
+      </c>
+      <c r="G331" s="2">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2"/>
+      <c r="I331" s="51" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="332" spans="1:9" ht="16.5">
-      <c r="B332" s="18"/>
+      <c r="A332" s="16">
+        <v>331</v>
+      </c>
+      <c r="B332" s="50" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C332" s="51" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D332" s="2"/>
+      <c r="E332" s="2">
+        <v>1</v>
+      </c>
+      <c r="F332" s="2">
+        <v>1</v>
+      </c>
+      <c r="G332" s="2">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2"/>
+      <c r="I332" s="51" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="333" spans="1:9" ht="16.5">
-      <c r="B333" s="18"/>
+      <c r="A333" s="16">
+        <v>332</v>
+      </c>
+      <c r="B333" s="50" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C333" s="51" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2">
+        <v>1</v>
+      </c>
+      <c r="F333" s="2">
+        <v>1</v>
+      </c>
+      <c r="G333" s="2">
+        <v>1</v>
+      </c>
+      <c r="H333" s="2"/>
+      <c r="I333" s="51" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="334" spans="1:9" ht="16.5">
       <c r="B334" s="18"/>

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -5058,10 +5058,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B339" sqref="B339"/>
+      <selection pane="bottomRight" activeCell="G253" sqref="G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11475,13 +11475,13 @@
         <v>945</v>
       </c>
       <c r="E253" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" s="25"/>
       <c r="I253" s="24" t="s">

--- a/config_2.9/game_module_config_cjj.xlsx
+++ b/config_2.9/game_module_config_cjj.xlsx
@@ -5058,10 +5058,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D241" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C273" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G253" sqref="G253"/>
+      <selection pane="bottomRight" activeCell="C294" sqref="C294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12381,13 +12381,13 @@
         <v>860</v>
       </c>
       <c r="E288" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
         <v>732</v>
